--- a/DCNames.xlsx
+++ b/DCNames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Projects\Python\MathModel\ComicSorter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Projects\Comic_Sorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B334C0-1BDD-4590-BF75-029100CA348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33880297-7B58-4206-892C-0FB167967475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1685">
   <si>
     <t>DC</t>
   </si>
@@ -4835,13 +4835,253 @@
   </si>
   <si>
     <t>Titans Giant</t>
+  </si>
+  <si>
+    <t>Track</t>
+  </si>
+  <si>
+    <t>Super</t>
+  </si>
+  <si>
+    <t>DataBaseTitle</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Vol 1 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 1 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 1 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 1 Month End</t>
+  </si>
+  <si>
+    <t>Vol 1 Year End</t>
+  </si>
+  <si>
+    <t>Vol 1 Issue End</t>
+  </si>
+  <si>
+    <t>Vol 2 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 2 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 2 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 2 Month End</t>
+  </si>
+  <si>
+    <t>Vol 2 Year End</t>
+  </si>
+  <si>
+    <t>Vol 2 Issue End</t>
+  </si>
+  <si>
+    <t>Vol 3 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 3 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 3 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 3 Month End</t>
+  </si>
+  <si>
+    <t>Vol 3 Year End</t>
+  </si>
+  <si>
+    <t>Vol 3 Issue End</t>
+  </si>
+  <si>
+    <t>Vol 4 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 4 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 4 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 4 Month End</t>
+  </si>
+  <si>
+    <t>Vol 4 Year End</t>
+  </si>
+  <si>
+    <t>Vol 4 Issue End</t>
+  </si>
+  <si>
+    <t>Vol 5 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 5 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 5 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 5 Month End</t>
+  </si>
+  <si>
+    <t>Vol 5 Year End</t>
+  </si>
+  <si>
+    <t>Vol 5 Issue End</t>
+  </si>
+  <si>
+    <t>Vol 6 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 6 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 6 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 6 Month End</t>
+  </si>
+  <si>
+    <t>Vol 6 Year End</t>
+  </si>
+  <si>
+    <t>Vol 6 Issue End</t>
+  </si>
+  <si>
+    <t>Vol 7 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 7 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 7 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 7 Month End</t>
+  </si>
+  <si>
+    <t>Vol 7 Year End</t>
+  </si>
+  <si>
+    <t>Vol 7 Issue End</t>
+  </si>
+  <si>
+    <t>Vol 8 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 8 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 8 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 8 Month End</t>
+  </si>
+  <si>
+    <t>Vol 8 Year End</t>
+  </si>
+  <si>
+    <t>Vol 8 Issue End</t>
+  </si>
+  <si>
+    <t>Vol 9 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 9 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 9 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 9 Month End</t>
+  </si>
+  <si>
+    <t>Vol 9 Year End</t>
+  </si>
+  <si>
+    <t>Vol 9 Issue End</t>
+  </si>
+  <si>
+    <t>Vol 10 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 10 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 10 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 10 Month End</t>
+  </si>
+  <si>
+    <t>Vol 10 Year End</t>
+  </si>
+  <si>
+    <t>Vol 10 Issue End</t>
+  </si>
+  <si>
+    <t>Vol 11 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 11 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 11 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 11 Month End</t>
+  </si>
+  <si>
+    <t>Vol 11 Year End</t>
+  </si>
+  <si>
+    <t>Vol 11 Issue End</t>
+  </si>
+  <si>
+    <t>Vol 12 Month Start</t>
+  </si>
+  <si>
+    <t>Vol 12 Year Start</t>
+  </si>
+  <si>
+    <t>Vol 12 Issue Start</t>
+  </si>
+  <si>
+    <t>Vol 12 Month End</t>
+  </si>
+  <si>
+    <t>Vol 12 Year End</t>
+  </si>
+  <si>
+    <t>Vol 12 Issue End</t>
+  </si>
+  <si>
+    <t>Superman/Batman</t>
+  </si>
+  <si>
+    <t>World's Finest</t>
+  </si>
+  <si>
+    <t>The_Batman_Strikes!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4854,16 +5094,36 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4886,20 +5146,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4910,6 +5210,317 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F5CD0D5-D2B5-4057-A9FA-093571400FB3}" name="Table1" displayName="Table1" ref="A1:BZ1605" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BZ1605" xr:uid="{0F5CD0D5-D2B5-4057-A9FA-093571400FB3}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="All New Batman The Brave And The Bold"/>
+        <filter val="All Star Batman"/>
+        <filter val="All Star Batman &amp; Robin Boy Wonder"/>
+        <filter val="Bat Lash"/>
+        <filter val="Bat Mite"/>
+        <filter val="Batgirl"/>
+        <filter val="Batgirl and the Birds of Prey"/>
+        <filter val="Batgirl and the Birds of Prey Rebirth"/>
+        <filter val="Batgirl Annual"/>
+        <filter val="Batgirl Endgame"/>
+        <filter val="Batgirl Futures End"/>
+        <filter val="Batman"/>
+        <filter val="Batman &amp; Outsiders"/>
+        <filter val="Batman &amp; The Outsiders"/>
+        <filter val="Batman (Bane)"/>
+        <filter val="Batman (Joker)"/>
+        <filter val="Batman (Penguin)"/>
+        <filter val="Batman (Riddler)"/>
+        <filter val="Batman 66"/>
+        <filter val="Batman 66 Meets Green Hornet"/>
+        <filter val="Batman 66 Meets Steed And Mrs Peel"/>
+        <filter val="Batman '66 Meets Steed And Mrs Peel"/>
+        <filter val="Batman 66 Meets The Legion of Super Heroes"/>
+        <filter val="Batman 66 Meets The Man From Uncle"/>
+        <filter val="Batman 66 Meets Wonder Woman 77"/>
+        <filter val="Batman 66 the Lost Episode"/>
+        <filter val="Batman 80 Page Giant"/>
+        <filter val="Batman 80 Page Giant 2010"/>
+        <filter val="Batman 80 Page Giant 2011"/>
+        <filter val="Batman and Aquaman"/>
+        <filter val="Batman and Batgirl"/>
+        <filter val="Batman And Catwoman"/>
+        <filter val="Batman And Frankenstein"/>
+        <filter val="Batman and Nightwing"/>
+        <filter val="Batman and Ras Al Ghul"/>
+        <filter val="Batman And Red Hood"/>
+        <filter val="Batman and Red Robin"/>
+        <filter val="Batman and Robin"/>
+        <filter val="Batman and Robin (Court of Owls)"/>
+        <filter val="Batman and Robin (Killer Croc)"/>
+        <filter val="Batman and Robin (Ras al Ghul)"/>
+        <filter val="Batman and Robin (Two Face)"/>
+        <filter val="Batman And Robin Annual"/>
+        <filter val="Batman and Robin Eternal"/>
+        <filter val="Batman And Robin Futures End"/>
+        <filter val="Batman and The Outsiders"/>
+        <filter val="Batman and the Outsiders Annual"/>
+        <filter val="Batman and the Outsiders Special"/>
+        <filter val="Batman and the Signal"/>
+        <filter val="Batman and Two Face"/>
+        <filter val="Batman And Wonder Woman"/>
+        <filter val="Batman Annual"/>
+        <filter val="Batman Arkham Asylum Special"/>
+        <filter val="Batman Arkham City"/>
+        <filter val="Batman Arkham City End Game"/>
+        <filter val="Batman Arkham Knight"/>
+        <filter val="Batman Arkham Knight Annual"/>
+        <filter val="Batman Arkham Knight Batgirl and Harley Quinn"/>
+        <filter val="Batman Arkham Knight Genesis"/>
+        <filter val="Batman Arkham Knight Robin Special"/>
+        <filter val="Batman Arkham Unhinged"/>
+        <filter val="Batman Battle For The Cowl"/>
+        <filter val="Batman Battle For The Cowl Arkham"/>
+        <filter val="Batman Battle For The Cowl Commissioner Gordon"/>
+        <filter val="Batman Battle For The Cowl Man Bat"/>
+        <filter val="Batman Battle For The Cowl The Network"/>
+        <filter val="Batman Battle For The Cowl The Underground"/>
+        <filter val="Batman Beyond"/>
+        <filter val="Batman Beyond Rebirth"/>
+        <filter val="Batman Beyond Universe"/>
+        <filter val="Batman Beyond Unlimited"/>
+        <filter val="Batman Black &amp; White"/>
+        <filter val="Batman Blank Comic"/>
+        <filter val="Batman Cacophony"/>
+        <filter val="Batman Catwoman Follow The Money"/>
+        <filter val="Batman Confidential"/>
+        <filter val="Batman Creature of the Night"/>
+        <filter val="Batman Curse of the White Knight"/>
+        <filter val="Batman Damned"/>
+        <filter val="Batman Death Mask"/>
+        <filter val="Batman Doc Savage Special"/>
+        <filter val="Batman Elmer Fudd Special"/>
+        <filter val="Batman Endgame Directors Cut"/>
+        <filter val="Batman Essentials Batman &amp; Son Spec Ed"/>
+        <filter val="Batman Essentials Batman Hush"/>
+        <filter val="Batman Essentials Batman Year One Spec Ed"/>
+        <filter val="Batman Essentials Dark Knight Returns Spec Ed"/>
+        <filter val="Batman Essentials The Black Mirror Spec Ed"/>
+        <filter val="Batman Eternal"/>
+        <filter val="Batman Europa"/>
+        <filter val="Batman Europa Directors Cut"/>
+        <filter val="Batman Futures End"/>
+        <filter val="Batman Gates of Gotham"/>
+        <filter val="Batman Giant"/>
+        <filter val="Batman Gotham After Midnight"/>
+        <filter val="Batman Gotham After Midnite"/>
+        <filter val="Batman Hidden Treasures"/>
+        <filter val="Batman In Barcelona Dragons Knight"/>
+        <filter val="Batman Incorporated"/>
+        <filter val="Batman Incorporated Leviathan Strikes"/>
+        <filter val="Batman Incorporated Special"/>
+        <filter val="Batman Jokers Daughter"/>
+        <filter val="Batman Kings of Fear"/>
+        <filter val="Batman Last Knight On Earth"/>
+        <filter val="Batman Legends of the Dark Knight Special"/>
+        <filter val="Batman Lil Gotham"/>
+        <filter val="Batman Lost"/>
+        <filter val="Batman Odyssey"/>
+        <filter val="Batman Odyssey Vol 2"/>
+        <filter val="Batman Odyssey Vol. 2"/>
+        <filter val="Batman Orphans"/>
+        <filter val="Batman Pennyworth RIP"/>
+        <filter val="Batman Prelude to the Wedding Batgirl Vs. Riddler"/>
+        <filter val="Batman Prelude to the Wedding Harley Vs. Joker"/>
+        <filter val="Batman Prelude to the Wedding Nightwing Vs. Hush"/>
+        <filter val="Batman Prelude to the Wedding Red Hood Vs. Anarky"/>
+        <filter val="Batman Prelude to the Wedding Robin Vs. Ras Al Ghul"/>
+        <filter val="Batman Rebirth"/>
+        <filter val="Batman Return of Bruce Wayne"/>
+        <filter val="Batman Secret Files"/>
+        <filter val="Batman Sins of the Father"/>
+        <filter val="Batman Streets of Gotham"/>
+        <filter val="Batman Strikes"/>
+        <filter val="Batman Superman"/>
+        <filter val="Batman Superman (Doomsday)"/>
+        <filter val="Batman Superman Annual"/>
+        <filter val="Batman Superman Futures End"/>
+        <filter val="Batman Teenage Mutant Ninja Turtles"/>
+        <filter val="Batman Teenage Mutant Ninja Turtles Directors Cut"/>
+        <filter val="Batman Teenage Mutant Ninja Turtles II"/>
+        <filter val="Batman Teenage Mutant Ninja Turtles III"/>
+        <filter val="Batman The Brave and The Bold"/>
+        <filter val="Batman The Dark Knight"/>
+        <filter val="Batman The Dark Knight (Clayface)"/>
+        <filter val="Batman The Dark Knight (Joker's Daughter)"/>
+        <filter val="Batman The Dark Knight (Mr. Freeze)"/>
+        <filter val="Batman The Dark Knight (Ventriloquist)"/>
+        <filter val="Batman The Dark Knight Annual"/>
+        <filter val="Batman The Dark Prince Charming HC Book 1"/>
+        <filter val="Batman The Dark Prince Charming HC Book 2"/>
+        <filter val="Batman The Dawnbreaker"/>
+        <filter val="Batman The Devastator"/>
+        <filter val="Batman The Drowned"/>
+        <filter val="Batman The Killing Joke New Ptg"/>
+        <filter val="Batman The Merciless"/>
+        <filter val="Batman The Murder Machine"/>
+        <filter val="Batman The Red Death"/>
+        <filter val="Batman The Return"/>
+        <filter val="Batman The Shadow"/>
+        <filter val="Batman The Unseen"/>
+        <filter val="Batman Universe"/>
+        <filter val="Batman Vs Scarecrow"/>
+        <filter val="Batman Vs. Ras Al Ghul"/>
+        <filter val="Batman White Knight"/>
+        <filter val="Batman White Knight Presents Von Freeze"/>
+        <filter val="Batman Who Laughs"/>
+        <filter val="Batman Who Laughs: The Grim Knight"/>
+        <filter val="Batman Widening Gyre"/>
+        <filter val="Batman Zero Year Directors Cut"/>
+        <filter val="Batman: Curse of the White Knight"/>
+        <filter val="Batman: Gotham After Midnite"/>
+        <filter val="Batmans Grave"/>
+        <filter val="Batman's Grave"/>
+        <filter val="Batwing"/>
+        <filter val="Batwing Futures End"/>
+        <filter val="Batwoman"/>
+        <filter val="Batwoman Annual"/>
+        <filter val="Batwoman Futures End"/>
+        <filter val="Batwoman Rebirth"/>
+        <filter val="Batwoman Supergirl Worlds Finest Giant"/>
+        <filter val="Beware The Batman"/>
+        <filter val="Billy Batson &amp; Magic of Shazam"/>
+        <filter val="Billy Batson and The Magic of Shazam"/>
+        <filter val="Blackest Night Batman"/>
+        <filter val="Brave &amp; The Bold Batman &amp; Wonder Woman"/>
+        <filter val="Bruce Wayne The Road Home Batman &amp; Robin"/>
+        <filter val="Bruce Wayne: The Road Home: Batgirl"/>
+        <filter val="Convergence Batgirl"/>
+        <filter val="Convergence Batman &amp; Robin"/>
+        <filter val="Convergence Batman &amp; The Outsiders"/>
+        <filter val="Convergence Batman Shadow of the Bat"/>
+        <filter val="Damian Son of Batman"/>
+        <filter val="DC Comics Essentials Batman"/>
+        <filter val="DC Comics Essentials Batman and Robin"/>
+        <filter val="DC Comics Essentials Batman Death of The Family"/>
+        <filter val="DC Comics Presents Batman"/>
+        <filter val="DC Comics Presents Batman Arkham"/>
+        <filter val="DC Comics Presents Batman Beyond"/>
+        <filter val="DC Comics Presents Batman Catwoman"/>
+        <filter val="DC Comics Presents Batman Conspiracy"/>
+        <filter val="DC Comics Presents Batman Dark City"/>
+        <filter val="DC Comics Presents Batman Gotham Noir"/>
+        <filter val="DC Comics Presents Batman Urban Legends"/>
+        <filter val="DC Justice League Essentials Batman"/>
+        <filter val="DC Retroactive Batman The 70s"/>
+        <filter val="DC Retroactive Batman the 80s"/>
+        <filter val="DC Retroactive Batman the 90s"/>
+        <filter val="Detective Comics (Man Bat)"/>
+        <filter val="Dollar Comics Batman"/>
+        <filter val="Dollar Comics Batman Adventures"/>
+        <filter val="Dollar Comics Batman Huntress Cry For Blood"/>
+        <filter val="Dollar Comics Batman Shadow of the Bat"/>
+        <filter val="Flashpoint Batman Knight of Vengeance"/>
+        <filter val="Forever Evil Aftermath Batman Vs Bane"/>
+        <filter val="G.I. Combat"/>
+        <filter val="Gotham Gazette Batman Dead"/>
+        <filter val="JLA Gods And Monsters Batman"/>
+        <filter val="Justice League Darkseid War Batman"/>
+        <filter val="Mortal Kombat X"/>
+        <filter val="Mother Panic Batman Special"/>
+        <filter val="Robin Son of Batman"/>
+        <filter val="Sgt Rock Lost Battalion"/>
+        <filter val="Sgt Rock The Lost Battalion"/>
+        <filter val="Sgt. Rock The Lost Battalion"/>
+        <filter val="Superman Batman"/>
+        <filter val="Superman Batman Annual"/>
+        <filter val="Superman Batman Vs Vampires Werewolves"/>
+        <filter val="Superman Batman Vs. Vampires Werewolves"/>
+        <filter val="Tales From The Dark Multiverse Batman Knightfall"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="78">
+    <tableColumn id="1" xr3:uid="{27651322-8BF0-4664-812F-D3C0C4411243}" name="DC"/>
+    <tableColumn id="2" xr3:uid="{33D7A4C6-D53D-479D-A20B-D9DB744BE79E}" name="Track"/>
+    <tableColumn id="3" xr3:uid="{448A50D1-EF5C-4252-92D7-1D168529CBF7}" name="Super"/>
+    <tableColumn id="4" xr3:uid="{BFC57B46-682B-4BB2-BAB7-0C8241FD10C8}" name="DataBaseTitle"/>
+    <tableColumn id="5" xr3:uid="{8A5AADC0-934C-4DC9-A5FC-9CA9161A3879}" name="Group"/>
+    <tableColumn id="6" xr3:uid="{1875FC0C-36C2-4069-ADF6-F113F5D30EE5}" name="Group Name"/>
+    <tableColumn id="7" xr3:uid="{6E0E539C-183B-4643-887A-F2D513E8FEF6}" name="Vol 1 Month Start"/>
+    <tableColumn id="8" xr3:uid="{4EE98C93-4AE4-4045-BC90-EB28F26E007F}" name="Vol 1 Year Start"/>
+    <tableColumn id="9" xr3:uid="{A7356779-EC37-4DA4-A6CE-9A45A3793197}" name="Vol 1 Issue Start"/>
+    <tableColumn id="10" xr3:uid="{DC23934A-AED4-4204-B357-009BDC8D8E63}" name="Vol 1 Month End"/>
+    <tableColumn id="11" xr3:uid="{B952F36C-0A85-410E-AAC8-F8B030393D14}" name="Vol 1 Year End"/>
+    <tableColumn id="12" xr3:uid="{76FB675B-3EAD-409F-8B5A-BB5F78390D92}" name="Vol 1 Issue End"/>
+    <tableColumn id="13" xr3:uid="{A2A3581A-6E32-4E76-B13A-1F3469A2B7EC}" name="Vol 2 Month Start"/>
+    <tableColumn id="14" xr3:uid="{0576533B-82F7-4728-8AFA-638855D58065}" name="Vol 2 Year Start"/>
+    <tableColumn id="15" xr3:uid="{561B793F-A3EB-4238-A2BD-AE977C5C0355}" name="Vol 2 Issue Start"/>
+    <tableColumn id="16" xr3:uid="{7164436E-EAA7-4280-96FD-D28181673132}" name="Vol 2 Month End"/>
+    <tableColumn id="17" xr3:uid="{2565AEC4-0A6E-4109-AB6A-90032E8B7F94}" name="Vol 2 Year End"/>
+    <tableColumn id="18" xr3:uid="{887A72E9-5235-4D74-813F-26B7E9972B28}" name="Vol 2 Issue End"/>
+    <tableColumn id="19" xr3:uid="{92B6BD54-A931-46BC-ACF1-20D16387F998}" name="Vol 3 Month Start"/>
+    <tableColumn id="20" xr3:uid="{1C5B40F5-D805-4151-A675-3D250CCCDAE3}" name="Vol 3 Year Start"/>
+    <tableColumn id="21" xr3:uid="{1A1B289B-011D-4BEA-8DCB-4A1EA81B55F2}" name="Vol 3 Issue Start"/>
+    <tableColumn id="22" xr3:uid="{F396AC8F-7505-4726-AAA4-4738CBE25380}" name="Vol 3 Month End"/>
+    <tableColumn id="23" xr3:uid="{8865CA9A-AFD3-4A12-8460-E46BE209C320}" name="Vol 3 Year End"/>
+    <tableColumn id="24" xr3:uid="{26DEE549-D701-45C1-8311-D98A7E258ACA}" name="Vol 3 Issue End"/>
+    <tableColumn id="25" xr3:uid="{EDFEA7E3-17BF-41F3-9158-40D5D709C88D}" name="Vol 4 Month Start"/>
+    <tableColumn id="26" xr3:uid="{8440AA22-C14C-4F9A-A0EB-E0FBC3154C44}" name="Vol 4 Year Start"/>
+    <tableColumn id="27" xr3:uid="{8CBDF311-B005-4654-8713-292CD47DC776}" name="Vol 4 Issue Start"/>
+    <tableColumn id="28" xr3:uid="{5E64E83A-D7CE-4F23-BE5D-16E836C523E8}" name="Vol 4 Month End"/>
+    <tableColumn id="29" xr3:uid="{1C991085-827A-45BD-8B56-F27B184A5DF5}" name="Vol 4 Year End"/>
+    <tableColumn id="30" xr3:uid="{07501D84-54F0-4177-B194-D669C7563352}" name="Vol 4 Issue End"/>
+    <tableColumn id="31" xr3:uid="{674821F8-D4D7-4300-AD05-8A1127B46345}" name="Vol 5 Month Start"/>
+    <tableColumn id="32" xr3:uid="{CB71184B-24A5-4114-8317-1765AECCBBB7}" name="Vol 5 Year Start"/>
+    <tableColumn id="33" xr3:uid="{19557496-E4BD-4CFD-B0F2-724FBED04FCC}" name="Vol 5 Issue Start"/>
+    <tableColumn id="34" xr3:uid="{FB71801F-C475-4B67-A654-A2B1AAA852CE}" name="Vol 5 Month End"/>
+    <tableColumn id="35" xr3:uid="{FB7D9021-3B52-4057-A0CC-3E887503FFAC}" name="Vol 5 Year End"/>
+    <tableColumn id="36" xr3:uid="{FD9E2649-1CF1-443B-82AC-E489CFF8A229}" name="Vol 5 Issue End"/>
+    <tableColumn id="37" xr3:uid="{3628F1FB-784C-4F88-AA25-506F00DA7C2C}" name="Vol 6 Month Start"/>
+    <tableColumn id="38" xr3:uid="{06924604-2A85-4ACE-98B4-50B64ABEEC51}" name="Vol 6 Year Start"/>
+    <tableColumn id="39" xr3:uid="{5DA6A027-EBA3-42FF-96CA-F0C29C5D7694}" name="Vol 6 Issue Start"/>
+    <tableColumn id="40" xr3:uid="{EDB5758D-DBD9-4652-B4D1-B132FE581E32}" name="Vol 6 Month End"/>
+    <tableColumn id="41" xr3:uid="{AA2DC69F-D0E0-4F77-800B-326C3F2AF38A}" name="Vol 6 Year End"/>
+    <tableColumn id="42" xr3:uid="{3BA0D779-B7B0-4ACE-A879-F66ABDF9CE12}" name="Vol 6 Issue End"/>
+    <tableColumn id="43" xr3:uid="{8685C050-B565-4E3B-85FB-8085F54C1754}" name="Vol 7 Month Start"/>
+    <tableColumn id="44" xr3:uid="{F9E402D1-6F3C-4303-85AF-17E83667C5F2}" name="Vol 7 Year Start"/>
+    <tableColumn id="45" xr3:uid="{883B8C73-33CB-4448-946C-37382D7302FC}" name="Vol 7 Issue Start"/>
+    <tableColumn id="46" xr3:uid="{DA74C515-1C2B-4F24-8A81-C93A58E000F6}" name="Vol 7 Month End"/>
+    <tableColumn id="47" xr3:uid="{FDA8C28B-8A21-4283-A232-C6E13EAD9D13}" name="Vol 7 Year End"/>
+    <tableColumn id="48" xr3:uid="{32682B2E-C39D-4999-9C48-6E06C8A577C1}" name="Vol 7 Issue End"/>
+    <tableColumn id="49" xr3:uid="{E1ADC321-0093-4E33-8FD2-76064481DD4A}" name="Vol 8 Month Start"/>
+    <tableColumn id="50" xr3:uid="{4B15FCEA-8D83-49C6-AECC-442E7D6EC3D1}" name="Vol 8 Year Start"/>
+    <tableColumn id="51" xr3:uid="{88D11E8F-5ABF-4E49-919C-09EE4765ACBE}" name="Vol 8 Issue Start"/>
+    <tableColumn id="52" xr3:uid="{FCC78FFA-8F77-4B98-80B9-541A398F8338}" name="Vol 8 Month End"/>
+    <tableColumn id="53" xr3:uid="{838D56C6-EDC9-4716-9E94-8EDFD85DD6C6}" name="Vol 8 Year End"/>
+    <tableColumn id="54" xr3:uid="{C72CAD54-1CA6-49F2-BE83-9C4460AA64B4}" name="Vol 8 Issue End"/>
+    <tableColumn id="55" xr3:uid="{CA49E496-6655-4610-AE05-BD5EA419E41E}" name="Vol 9 Month Start"/>
+    <tableColumn id="56" xr3:uid="{996273B4-87D0-46C7-9851-6C2BA6B7AF0F}" name="Vol 9 Year Start"/>
+    <tableColumn id="57" xr3:uid="{02ED4D7F-A7B7-47D2-8423-6F6FA77494B6}" name="Vol 9 Issue Start"/>
+    <tableColumn id="58" xr3:uid="{59124347-14F6-40B2-9E24-2CA03C602166}" name="Vol 9 Month End"/>
+    <tableColumn id="59" xr3:uid="{611BB8D0-F192-4F66-B036-B80878C3C99E}" name="Vol 9 Year End"/>
+    <tableColumn id="60" xr3:uid="{BE80B3DF-AC7A-4DA2-97AE-ECEAAEC02174}" name="Vol 9 Issue End"/>
+    <tableColumn id="61" xr3:uid="{75E58E0B-2378-4F40-A093-EBF25D32CA12}" name="Vol 10 Month Start"/>
+    <tableColumn id="62" xr3:uid="{4846C9EF-9E7F-44D8-81D3-8D91366CB584}" name="Vol 10 Year Start"/>
+    <tableColumn id="63" xr3:uid="{E5AFB1F0-0B32-43F2-B026-36C9131E5F63}" name="Vol 10 Issue Start"/>
+    <tableColumn id="64" xr3:uid="{4FD11D6C-D488-4638-B3E6-CCE87489C831}" name="Vol 10 Month End"/>
+    <tableColumn id="65" xr3:uid="{ED6639CE-7841-455A-B9D3-820F5F482898}" name="Vol 10 Year End"/>
+    <tableColumn id="66" xr3:uid="{22763495-628C-4312-B3C5-ECBFA2F48E26}" name="Vol 10 Issue End"/>
+    <tableColumn id="67" xr3:uid="{993DA566-C32B-43FF-A63F-7244791954D5}" name="Vol 11 Month Start"/>
+    <tableColumn id="68" xr3:uid="{3414F1FB-E288-46F4-8071-B9761BCA6A9A}" name="Vol 11 Year Start"/>
+    <tableColumn id="69" xr3:uid="{CD8F3001-FCE4-4308-AC02-A96983EB85E2}" name="Vol 11 Issue Start"/>
+    <tableColumn id="70" xr3:uid="{9B043D03-E8A6-4811-887E-21AAD25176E2}" name="Vol 11 Month End"/>
+    <tableColumn id="71" xr3:uid="{3742D783-0E2D-47A5-B633-9A07A5146CF5}" name="Vol 11 Year End"/>
+    <tableColumn id="72" xr3:uid="{E111871C-040C-4A73-8B32-5BE642B3B038}" name="Vol 11 Issue End"/>
+    <tableColumn id="73" xr3:uid="{FD4672CF-24AE-45D1-857C-87B04CF69740}" name="Vol 12 Month Start"/>
+    <tableColumn id="74" xr3:uid="{FDDD0EC0-7B70-4FB8-BD0E-C3428BEF61A6}" name="Vol 12 Year Start"/>
+    <tableColumn id="75" xr3:uid="{4C19E8D8-C08A-4112-8410-4D6860127318}" name="Vol 12 Issue Start"/>
+    <tableColumn id="76" xr3:uid="{D8233C31-D2AD-4DB1-9011-47AD0FD07320}" name="Vol 12 Month End"/>
+    <tableColumn id="77" xr3:uid="{62B12F6D-C6B2-470F-8B53-C80D8CE66B88}" name="Vol 12 Year End"/>
+    <tableColumn id="78" xr3:uid="{80DEBB5B-565C-4FE6-8016-267456489A8D}" name="Vol 12 Issue End"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5197,498 +5808,940 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A1605"/>
+  <dimension ref="A1:BZ1605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.06640625" customWidth="1"/>
+    <col min="4" max="4" width="22.9296875" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.06640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" customWidth="1"/>
+    <col min="10" max="10" width="16.265625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.9296875" customWidth="1"/>
+    <col min="13" max="13" width="17.06640625" customWidth="1"/>
+    <col min="14" max="14" width="15.1328125" customWidth="1"/>
+    <col min="15" max="15" width="15.73046875" customWidth="1"/>
+    <col min="16" max="16" width="16.265625" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.9296875" customWidth="1"/>
+    <col min="19" max="19" width="17.06640625" customWidth="1"/>
+    <col min="20" max="20" width="15.1328125" customWidth="1"/>
+    <col min="21" max="21" width="15.73046875" customWidth="1"/>
+    <col min="22" max="22" width="16.265625" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" customWidth="1"/>
+    <col min="24" max="24" width="14.9296875" customWidth="1"/>
+    <col min="25" max="25" width="17.06640625" customWidth="1"/>
+    <col min="26" max="26" width="15.1328125" customWidth="1"/>
+    <col min="27" max="27" width="15.73046875" customWidth="1"/>
+    <col min="28" max="28" width="16.265625" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" customWidth="1"/>
+    <col min="30" max="30" width="14.9296875" customWidth="1"/>
+    <col min="31" max="31" width="17.06640625" customWidth="1"/>
+    <col min="32" max="32" width="15.1328125" customWidth="1"/>
+    <col min="33" max="33" width="15.73046875" customWidth="1"/>
+    <col min="34" max="34" width="16.265625" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" customWidth="1"/>
+    <col min="36" max="36" width="14.9296875" customWidth="1"/>
+    <col min="37" max="37" width="17.06640625" customWidth="1"/>
+    <col min="38" max="38" width="15.1328125" customWidth="1"/>
+    <col min="39" max="39" width="15.73046875" customWidth="1"/>
+    <col min="40" max="40" width="16.265625" customWidth="1"/>
+    <col min="41" max="41" width="14.33203125" customWidth="1"/>
+    <col min="42" max="42" width="14.9296875" customWidth="1"/>
+    <col min="43" max="43" width="17.06640625" customWidth="1"/>
+    <col min="44" max="44" width="15.1328125" customWidth="1"/>
+    <col min="45" max="45" width="15.73046875" customWidth="1"/>
+    <col min="46" max="46" width="16.265625" customWidth="1"/>
+    <col min="47" max="47" width="14.33203125" customWidth="1"/>
+    <col min="48" max="48" width="14.9296875" customWidth="1"/>
+    <col min="49" max="49" width="17.06640625" customWidth="1"/>
+    <col min="50" max="50" width="15.1328125" customWidth="1"/>
+    <col min="51" max="51" width="15.73046875" customWidth="1"/>
+    <col min="52" max="52" width="16.265625" customWidth="1"/>
+    <col min="53" max="53" width="14.33203125" customWidth="1"/>
+    <col min="54" max="54" width="14.9296875" customWidth="1"/>
+    <col min="55" max="55" width="17.06640625" customWidth="1"/>
+    <col min="56" max="56" width="15.1328125" customWidth="1"/>
+    <col min="57" max="57" width="15.73046875" customWidth="1"/>
+    <col min="58" max="58" width="16.265625" customWidth="1"/>
+    <col min="59" max="59" width="14.33203125" customWidth="1"/>
+    <col min="60" max="60" width="14.9296875" customWidth="1"/>
+    <col min="61" max="61" width="18.06640625" customWidth="1"/>
+    <col min="62" max="62" width="16.1328125" customWidth="1"/>
+    <col min="63" max="63" width="16.73046875" customWidth="1"/>
+    <col min="64" max="64" width="17.265625" customWidth="1"/>
+    <col min="65" max="65" width="15.33203125" customWidth="1"/>
+    <col min="66" max="66" width="15.9296875" customWidth="1"/>
+    <col min="67" max="67" width="18.06640625" customWidth="1"/>
+    <col min="68" max="68" width="16.1328125" customWidth="1"/>
+    <col min="69" max="69" width="16.73046875" customWidth="1"/>
+    <col min="70" max="70" width="17.265625" customWidth="1"/>
+    <col min="71" max="71" width="15.33203125" customWidth="1"/>
+    <col min="72" max="72" width="15.9296875" customWidth="1"/>
+    <col min="73" max="73" width="18.06640625" customWidth="1"/>
+    <col min="74" max="74" width="16.1328125" customWidth="1"/>
+    <col min="75" max="75" width="16.73046875" customWidth="1"/>
+    <col min="76" max="76" width="17.265625" customWidth="1"/>
+    <col min="77" max="77" width="15.33203125" customWidth="1"/>
+    <col min="78" max="78" width="15.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B1" s="2" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>1646</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>1661</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2008</v>
+      </c>
+      <c r="I4">
+        <v>671</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>2011</v>
+      </c>
+      <c r="L4">
+        <v>713</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>2011</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>2016</v>
+      </c>
+      <c r="R4">
+        <v>52</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>2016</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>2023</v>
+      </c>
+      <c r="X4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2008</v>
+      </c>
+      <c r="I8">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>2011</v>
+      </c>
+      <c r="L8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>2008</v>
+      </c>
+      <c r="I70">
+        <v>39</v>
+      </c>
+      <c r="J70">
+        <v>12</v>
+      </c>
+      <c r="K70">
+        <v>2008</v>
+      </c>
+      <c r="L70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -5698,52 +6751,52 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5753,57 +6806,57 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -5813,67 +6866,67 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -5883,67 +6936,67 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -5953,32 +7006,32 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -5993,32 +7046,32 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -6028,27 +7081,27 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -6058,77 +7111,77 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -6138,42 +7191,42 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -6183,57 +7236,57 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -6243,32 +7296,32 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -6278,7 +7331,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -6288,22 +7341,22 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -6313,12 +7366,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -6328,37 +7381,37 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -6368,37 +7421,37 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -6408,22 +7461,22 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -6433,7 +7486,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -6443,12 +7496,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -6463,57 +7516,57 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -6533,52 +7586,52 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -6588,27 +7641,27 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -6618,22 +7671,22 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -6643,7 +7696,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -6653,27 +7706,27 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -6683,7 +7736,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -6698,67 +7751,67 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -6768,12 +7821,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -6783,102 +7836,102 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -6888,22 +7941,22 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -6913,17 +7966,17 @@
         <v>340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -6938,62 +7991,62 @@
         <v>345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -7003,17 +8056,17 @@
         <v>358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -7023,62 +8076,62 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -7088,47 +8141,47 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -7138,7 +8191,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -7153,87 +8206,87 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -7248,42 +8301,42 @@
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -7293,7 +8346,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -7308,67 +8361,67 @@
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -7378,47 +8431,47 @@
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -7428,92 +8481,92 @@
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>461</v>
       </c>
@@ -7523,27 +8576,27 @@
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>467</v>
       </c>
@@ -7553,62 +8606,62 @@
         <v>468</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -7618,12 +8671,12 @@
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -7633,27 +8686,27 @@
         <v>484</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -7663,57 +8716,57 @@
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>501</v>
       </c>
@@ -7723,7 +8776,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>503</v>
       </c>
@@ -7733,12 +8786,12 @@
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>506</v>
       </c>
@@ -7763,12 +8816,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>512</v>
       </c>
@@ -7778,7 +8831,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>514</v>
       </c>
@@ -7788,37 +8841,37 @@
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>522</v>
       </c>
@@ -7828,7 +8881,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>524</v>
       </c>
@@ -7843,27 +8896,27 @@
         <v>526</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>531</v>
       </c>
@@ -7873,87 +8926,87 @@
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A544" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A546" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A547" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A548" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A549" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A550" t="s">
         <v>549</v>
       </c>
@@ -7963,47 +9016,47 @@
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A552" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A553" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A554" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A555" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A556" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A557" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A558" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A559" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A560" t="s">
         <v>559</v>
       </c>
@@ -8013,12 +9066,12 @@
         <v>560</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A562" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A563" t="s">
         <v>562</v>
       </c>
@@ -8033,12 +9086,12 @@
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A566" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A567" t="s">
         <v>566</v>
       </c>
@@ -8048,17 +9101,17 @@
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A569" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A570" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A571" t="s">
         <v>570</v>
       </c>
@@ -8068,127 +9121,127 @@
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A573" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A574" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A575" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A576" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A577" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A578" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A579" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A580" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A581" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A582" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A583" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A584" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A585" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A586" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A587" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A588" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A589" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A590" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A591" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A592" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A593" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A594" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A595" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A596" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A597" t="s">
         <v>596</v>
       </c>
@@ -8198,22 +9251,22 @@
         <v>597</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A599" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A600" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A601" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>601</v>
       </c>
@@ -8223,27 +9276,27 @@
         <v>602</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A604" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A605" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A606" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A607" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A608" t="s">
         <v>607</v>
       </c>
@@ -8253,12 +9306,12 @@
         <v>608</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A610" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A611" t="s">
         <v>610</v>
       </c>
@@ -8268,42 +9321,42 @@
         <v>611</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A613" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A614" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A615" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A616" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A617" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A618" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A619" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A620" t="s">
         <v>619</v>
       </c>
@@ -8313,7 +9366,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A622" t="s">
         <v>621</v>
       </c>
@@ -8328,52 +9381,52 @@
         <v>623</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A625" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A626" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A627" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A628" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A629" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A630" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A631" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A632" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A633" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A634" t="s">
         <v>633</v>
       </c>
@@ -8383,67 +9436,67 @@
         <v>634</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A636" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A637" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A638" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A639" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A640" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A641" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A642" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A643" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A644" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A645" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A646" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A647" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A648" t="s">
         <v>647</v>
       </c>
@@ -8453,97 +9506,97 @@
         <v>648</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A650" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A651" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A652" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A653" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A654" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A655" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A656" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A657" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A658" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A659" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A660" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A661" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A662" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A663" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A664" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A665" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A666" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A667" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A668" t="s">
         <v>667</v>
       </c>
@@ -8553,47 +9606,47 @@
         <v>668</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A670" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A671" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A672" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A673" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A674" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A675" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A676" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A677" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A678" t="s">
         <v>677</v>
       </c>
@@ -8603,12 +9656,12 @@
         <v>678</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A680" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>680</v>
       </c>
@@ -8618,7 +9671,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A683" t="s">
         <v>682</v>
       </c>
@@ -8638,37 +9691,37 @@
         <v>685</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A687" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A688" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A689" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A690" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A691" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A692" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A693" t="s">
         <v>692</v>
       </c>
@@ -8678,172 +9731,172 @@
         <v>693</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A695" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A697" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A698" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A700" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A701" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A702" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A703" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A704" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A705" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A706" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A707" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A708" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A709" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A710" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A711" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A712" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A713" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A714" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A715" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A716" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A717" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A721" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A722" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A723" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A724" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A725" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A726" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A727" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A728" t="s">
         <v>727</v>
       </c>
@@ -8853,62 +9906,62 @@
         <v>728</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A732" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A733" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A734" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A735" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A736" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A737" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A738" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A739" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A740" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A741" t="s">
         <v>740</v>
       </c>
@@ -8918,27 +9971,27 @@
         <v>741</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A743" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A744" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A745" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A746" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A747" t="s">
         <v>746</v>
       </c>
@@ -8948,77 +10001,77 @@
         <v>747</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A749" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A752" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A754" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A755" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A756" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A757" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A758" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A759" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A760" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A761" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A762" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A763" t="s">
         <v>762</v>
       </c>
@@ -9038,7 +10091,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A767" t="s">
         <v>766</v>
       </c>
@@ -9048,47 +10101,47 @@
         <v>767</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A770" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A772" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A773" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A775" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A776" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A777" t="s">
         <v>776</v>
       </c>
@@ -9103,32 +10156,32 @@
         <v>778</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A780" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A781" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A782" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A783" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A784" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A785" t="s">
         <v>784</v>
       </c>
@@ -9143,17 +10196,17 @@
         <v>786</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A788" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A789" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A790" t="s">
         <v>789</v>
       </c>
@@ -9163,7 +10216,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A792" t="s">
         <v>791</v>
       </c>
@@ -9178,12 +10231,12 @@
         <v>793</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A795" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A796" t="s">
         <v>795</v>
       </c>
@@ -9193,32 +10246,32 @@
         <v>796</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A798" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A799" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A800" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A801" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A802" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A803" t="s">
         <v>802</v>
       </c>
@@ -9243,7 +10296,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A808" t="s">
         <v>807</v>
       </c>
@@ -9258,7 +10311,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A811" t="s">
         <v>810</v>
       </c>
@@ -9268,12 +10321,12 @@
         <v>811</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A813" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A814" t="s">
         <v>813</v>
       </c>
@@ -9283,7 +10336,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A816" t="s">
         <v>815</v>
       </c>
@@ -9293,22 +10346,22 @@
         <v>816</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A818" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A819" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A820" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A821" t="s">
         <v>820</v>
       </c>
@@ -9323,102 +10376,102 @@
         <v>822</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A824" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A825" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A826" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A827" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A828" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A829" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A830" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A831" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A832" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A833" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A834" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A835" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A836" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A837" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A838" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A839" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A840" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A841" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A842" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A843" t="s">
         <v>842</v>
       </c>
@@ -9428,7 +10481,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A845" t="s">
         <v>844</v>
       </c>
@@ -9438,22 +10491,22 @@
         <v>845</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A847" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A848" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A849" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A850" t="s">
         <v>849</v>
       </c>
@@ -9468,32 +10521,32 @@
         <v>851</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A853" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A854" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A855" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A856" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A857" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A858" t="s">
         <v>857</v>
       </c>
@@ -9503,17 +10556,17 @@
         <v>858</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A860" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A861" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A862" t="s">
         <v>861</v>
       </c>
@@ -9528,27 +10581,27 @@
         <v>863</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A865" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A866" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A867" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A868" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A869" t="s">
         <v>868</v>
       </c>
@@ -9558,12 +10611,12 @@
         <v>869</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A871" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A872" t="s">
         <v>871</v>
       </c>
@@ -9573,32 +10626,32 @@
         <v>872</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A874" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A875" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A876" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A877" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A878" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A879" t="s">
         <v>878</v>
       </c>
@@ -9608,77 +10661,77 @@
         <v>879</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A881" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A882" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A883" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A884" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A885" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A886" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A887" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A888" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A889" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A890" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A891" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A892" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A893" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A894" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A895" t="s">
         <v>894</v>
       </c>
@@ -9688,27 +10741,27 @@
         <v>895</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A897" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A898" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A899" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A900" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A901" t="s">
         <v>900</v>
       </c>
@@ -9718,32 +10771,32 @@
         <v>901</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A903" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A904" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A905" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A906" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A907" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A908" t="s">
         <v>907</v>
       </c>
@@ -9758,17 +10811,17 @@
         <v>909</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A911" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A912" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A913" t="s">
         <v>912</v>
       </c>
@@ -9778,7 +10831,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A915" t="s">
         <v>914</v>
       </c>
@@ -9788,7 +10841,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A917" t="s">
         <v>916</v>
       </c>
@@ -9798,17 +10851,17 @@
         <v>917</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A919" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A920" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A921" t="s">
         <v>920</v>
       </c>
@@ -9818,22 +10871,22 @@
         <v>921</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A923" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A924" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A925" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A926" t="s">
         <v>925</v>
       </c>
@@ -9843,7 +10896,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A928" t="s">
         <v>927</v>
       </c>
@@ -9858,92 +10911,92 @@
         <v>929</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A931" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A932" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A933" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A934" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A935" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A936" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A937" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A938" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A939" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A940" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A941" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A942" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A943" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A944" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A945" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A946" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A947" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A948" t="s">
         <v>947</v>
       </c>
@@ -9953,7 +11006,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A950" t="s">
         <v>949</v>
       </c>
@@ -9963,17 +11016,17 @@
         <v>950</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A952" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A953" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A954" t="s">
         <v>953</v>
       </c>
@@ -9988,52 +11041,52 @@
         <v>955</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A957" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A958" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A959" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A960" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A961" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A962" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A963" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A964" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A965" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A966" t="s">
         <v>965</v>
       </c>
@@ -10043,87 +11096,87 @@
         <v>966</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A968" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A969" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A970" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="971" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A971" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A972" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A973" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A974" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A975" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="976" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A976" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="977" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A977" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A978" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A979" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A980" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="981" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A981" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="982" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A982" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A983" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A984" t="s">
         <v>983</v>
       </c>
@@ -10133,32 +11186,32 @@
         <v>984</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="986" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A986" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="987" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A987" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="988" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A988" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="989" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A989" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="990" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A990" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="991" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A991" t="s">
         <v>990</v>
       </c>
@@ -10173,92 +11226,92 @@
         <v>992</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="994" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A994" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="995" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A995" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="996" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A996" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="997" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A997" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="998" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A998" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="999" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A999" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1000" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1000" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1001" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1001" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1002" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1002" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1003" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1003" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1004" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1004" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1005" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1005" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1006" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1006" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1007" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1007" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1008" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1008" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1009" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1009" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1010" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1010" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1011" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1011" t="s">
         <v>1010</v>
       </c>
@@ -10268,12 +11321,12 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1013" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1013" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1014" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1014" t="s">
         <v>1013</v>
       </c>
@@ -10288,47 +11341,47 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1017" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1017" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1018" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1018" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1019" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1019" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1020" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1020" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1021" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1021" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1022" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1022" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1023" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1023" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1024" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1024" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1025" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1025" t="s">
         <v>1024</v>
       </c>
@@ -10338,17 +11391,17 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1027" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1027" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1028" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1028" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1029" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1029" t="s">
         <v>1028</v>
       </c>
@@ -10358,37 +11411,37 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1031" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1031" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1032" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1032" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1033" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1033" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1034" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1034" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1035" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1035" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1036" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1036" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1037" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1037" t="s">
         <v>1036</v>
       </c>
@@ -10398,12 +11451,12 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1039" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1039" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1040" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1040" t="s">
         <v>1039</v>
       </c>
@@ -10413,22 +11466,22 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1042" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1042" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1043" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1043" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1044" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1044" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1045" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1045" t="s">
         <v>1044</v>
       </c>
@@ -10443,17 +11496,17 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1048" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1048" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1049" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1049" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1050" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1050" t="s">
         <v>1049</v>
       </c>
@@ -10463,27 +11516,27 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1052" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1052" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1053" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1053" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1054" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1054" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1055" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1055" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1056" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1056" t="s">
         <v>1055</v>
       </c>
@@ -10493,152 +11546,152 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1058" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1058" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1059" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1059" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1060" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1060" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1061" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1061" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1062" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1062" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1063" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1063" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1064" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1064" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1065" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1065" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1066" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1066" t="s">
         <v>1065</v>
       </c>
     </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1067" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1067" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1068" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1068" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1069" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1069" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1070" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1070" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1071" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1071" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1072" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1072" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1073" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1073" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1074" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1074" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1075" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1075" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1076" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1076" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1077" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1077" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1078" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1078" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1079" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1079" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1080" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1080" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1081" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1081" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1082" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1082" t="s">
         <v>1081</v>
       </c>
     </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1083" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1083" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1084" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1084" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1085" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1085" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1086" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1086" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1087" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1087" t="s">
         <v>1086</v>
       </c>
@@ -10648,27 +11701,27 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1089" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1089" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1090" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1090" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1091" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1091" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1092" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1092" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1093" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1093" t="s">
         <v>1092</v>
       </c>
@@ -10678,52 +11731,52 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1095" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1095" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1096" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1096" t="s">
         <v>1095</v>
       </c>
     </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1097" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1097" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1098" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1098" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1099" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1099" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1100" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1100" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1101" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1101" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1102" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1102" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1103" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1103" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1104" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1104" t="s">
         <v>1103</v>
       </c>
@@ -10733,52 +11786,52 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1106" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1106" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1107" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1107" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1108" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1108" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1109" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1109" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1110" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1110" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1111" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1111" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1112" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1112" t="s">
         <v>1111</v>
       </c>
     </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1113" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1113" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1114" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1114" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1115" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1115" t="s">
         <v>1114</v>
       </c>
@@ -10788,47 +11841,47 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1117" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1117" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1118" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1118" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1119" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1119" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1120" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1120" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1121" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1121" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1122" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1122" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1123" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1123" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1124" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1124" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1125" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1125" t="s">
         <v>1124</v>
       </c>
@@ -10838,22 +11891,22 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1127" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1127" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1128" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1128" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1129" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1129" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1130" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1130" t="s">
         <v>1129</v>
       </c>
@@ -10873,52 +11926,52 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1134" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1134" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1135" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1135" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1136" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1136" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1137" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1137" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1138" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1138" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1139" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1139" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1140" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1140" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1141" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1141" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1142" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1142" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1143" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1143" t="s">
         <v>1142</v>
       </c>
@@ -10928,27 +11981,27 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1145" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1145" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1146" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1146" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1147" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1147" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1148" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1148" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1149" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1149" t="s">
         <v>1148</v>
       </c>
@@ -10958,22 +12011,22 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1151" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1151" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1152" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1152" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1153" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1153" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1154" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1154" t="s">
         <v>1153</v>
       </c>
@@ -10988,22 +12041,22 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1157" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1157" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1158" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1158" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1159" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1159" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1160" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1160" t="s">
         <v>1159</v>
       </c>
@@ -11013,72 +12066,72 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1162" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1162" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1163" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1163" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1164" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1164" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1165" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1165" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1166" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1166" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1167" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1167" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1168" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1168" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1169" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1169" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1170" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1170" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1171" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1171" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1172" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1172" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1173" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1173" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1174" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1174" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1175" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1175" t="s">
         <v>1174</v>
       </c>
@@ -11093,62 +12146,62 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1178" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1178" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1179" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1179" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1180" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1180" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1181" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1181" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1182" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1182" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1183" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1183" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1184" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1184" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1185" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1185" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1186" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1186" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1187" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1187" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1188" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1188" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1189" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1189" t="s">
         <v>1188</v>
       </c>
@@ -11158,27 +12211,27 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1191" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1191" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1192" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1192" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1193" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1193" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1194" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1194" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1195" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1195" t="s">
         <v>1194</v>
       </c>
@@ -11188,52 +12241,52 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1197" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1197" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1198" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1198" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1199" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1199" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1200" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1200" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1201" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1201" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1202" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1202" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1203" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1203" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1204" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1204" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1205" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1205" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1206" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1206" t="s">
         <v>1205</v>
       </c>
@@ -11243,27 +12296,27 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1208" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1208" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1209" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1209" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1210" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1210" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1211" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1211" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1212" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1212" t="s">
         <v>1211</v>
       </c>
@@ -11273,17 +12326,17 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1214" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1214" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1215" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1215" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1216" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1216" t="s">
         <v>1215</v>
       </c>
@@ -11298,22 +12351,22 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1219" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1219" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1220" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1220" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1221" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1221" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1222" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1222" t="s">
         <v>1221</v>
       </c>
@@ -11323,42 +12376,42 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1224" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1224" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1225" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1225" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1226" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1226" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1227" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1227" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1228" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1228" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1229" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1229" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1230" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1230" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1231" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1231" t="s">
         <v>1230</v>
       </c>
@@ -11368,7 +12421,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1233" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1233" t="s">
         <v>1232</v>
       </c>
@@ -11378,32 +12431,32 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1235" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1235" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1236" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1236" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1237" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1237" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1238" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1238" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1239" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1239" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1240" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1240" t="s">
         <v>1239</v>
       </c>
@@ -11418,137 +12471,137 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1243" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1243" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1244" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1244" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1245" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1245" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1246" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1246" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1247" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1247" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1248" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1248" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1249" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1249" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1250" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1250" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1251" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1251" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1252" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1252" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1253" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1253" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1254" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1254" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1255" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1255" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1256" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1256" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1257" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1257" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1258" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1258" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1259" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1259" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1260" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1260" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1261" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1261" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1262" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1262" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1263" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1263" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1264" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1264" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1265" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1265" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1266" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1266" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1267" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1267" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1268" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1268" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1269" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1269" t="s">
         <v>1268</v>
       </c>
@@ -11558,42 +12611,42 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1271" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1271" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1272" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1272" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1273" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1273" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1274" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1274" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1275" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1275" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1276" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1276" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1277" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1277" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1278" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1278" t="s">
         <v>1277</v>
       </c>
@@ -11603,47 +12656,47 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1280" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1280" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1281" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1281" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1282" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1282" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1283" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1283" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1284" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1284" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1285" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1285" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1286" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1286" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1287" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1287" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1288" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1288" t="s">
         <v>1287</v>
       </c>
@@ -11653,32 +12706,32 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1290" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1290" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1291" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1291" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1292" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1292" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1293" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1293" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1294" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1294" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1295" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1295" t="s">
         <v>1294</v>
       </c>
@@ -11688,42 +12741,42 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1297" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1297" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1298" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1298" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1299" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1299" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1300" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1300" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1301" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1301" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1302" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1302" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1303" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1303" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1304" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1304" t="s">
         <v>1303</v>
       </c>
@@ -11733,7 +12786,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1306" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1306" t="s">
         <v>1305</v>
       </c>
@@ -11743,82 +12796,82 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1308" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1308" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1309" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1309" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1310" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1310" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1311" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1311" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1312" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1312" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1313" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1313" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1314" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1314" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1315" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1315" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1316" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1316" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1317" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1317" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1318" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1318" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1319" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1319" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1320" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1320" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1321" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1321" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1322" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1322" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1323" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1323" t="s">
         <v>1322</v>
       </c>
@@ -11833,17 +12886,17 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1326" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1326" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1327" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1327" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1328" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1328" t="s">
         <v>1327</v>
       </c>
@@ -11868,37 +12921,37 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1333" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1333" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1334" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1334" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1335" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1335" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1336" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1336" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1337" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1337" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1338" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1338" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1339" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1339" t="s">
         <v>1338</v>
       </c>
@@ -11923,37 +12976,37 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1344" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1344" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1345" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1345" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1346" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1346" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1347" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1347" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1348" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1348" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1349" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1349" t="s">
         <v>1348</v>
       </c>
     </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1350" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1350" t="s">
         <v>1349</v>
       </c>
@@ -11963,27 +13016,27 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1352" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1352" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1353" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1353" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1354" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1354" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1355" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1355" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1356" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1356" t="s">
         <v>1355</v>
       </c>
@@ -11993,7 +13046,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1358" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1358" t="s">
         <v>1357</v>
       </c>
@@ -12003,37 +13056,37 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1360" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1360" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1361" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1361" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1362" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1362" t="s">
         <v>1361</v>
       </c>
     </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1363" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1363" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1364" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1364" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1365" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1365" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1366" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1366" t="s">
         <v>1365</v>
       </c>
@@ -12043,12 +13096,12 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1368" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1368" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1369" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1369" t="s">
         <v>1368</v>
       </c>
@@ -12058,12 +13111,12 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1371" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1371" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1372" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1372" t="s">
         <v>1371</v>
       </c>
@@ -12073,7 +13126,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1374" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1374" t="s">
         <v>1373</v>
       </c>
@@ -12083,82 +13136,82 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1376" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1376" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1377" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1377" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1378" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1378" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1379" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1379" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1380" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1380" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1381" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1381" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1382" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1382" t="s">
         <v>1381</v>
       </c>
     </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1383" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1383" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1384" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1384" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1385" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1385" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1386" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1386" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1387" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1387" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1388" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1388" t="s">
         <v>1387</v>
       </c>
     </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1389" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1389" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1390" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1390" t="s">
         <v>1389</v>
       </c>
     </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1391" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1391" t="s">
         <v>1390</v>
       </c>
@@ -12168,52 +13221,52 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1393" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1393" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1394" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1394" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1395" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1395" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1396" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1396" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1397" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1397" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1398" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1398" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1399" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1399" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1400" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1400" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1401" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1401" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1402" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1402" t="s">
         <v>1401</v>
       </c>
@@ -12238,22 +13291,22 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="1407" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1407" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1407" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="1408" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1408" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1408" t="s">
         <v>1407</v>
       </c>
     </row>
-    <row r="1409" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1409" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1409" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="1410" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1410" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1410" t="s">
         <v>1409</v>
       </c>
@@ -12263,22 +13316,22 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="1412" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1412" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1412" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="1413" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1413" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1413" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="1414" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1414" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1414" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="1415" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1415" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1415" t="s">
         <v>1414</v>
       </c>
@@ -12288,57 +13341,57 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="1417" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1417" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1417" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="1418" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1418" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1418" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="1419" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1419" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1419" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="1420" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1420" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1420" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="1421" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1421" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1421" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="1422" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1422" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1422" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="1423" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1423" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1423" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="1424" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1424" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1424" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="1425" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1425" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1425" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="1426" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1426" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1426" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1427" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1427" t="s">
         <v>1426</v>
       </c>
@@ -12348,37 +13401,37 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1429" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1429" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="1430" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1430" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1430" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="1431" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1431" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1431" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="1432" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1432" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1432" t="s">
         <v>1431</v>
       </c>
     </row>
-    <row r="1433" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1433" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1433" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="1434" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1434" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1434" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="1435" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1435" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1435" t="s">
         <v>1434</v>
       </c>
@@ -12388,32 +13441,32 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="1437" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1437" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1437" t="s">
         <v>1436</v>
       </c>
     </row>
-    <row r="1438" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1438" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1438" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="1439" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1439" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1439" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="1440" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1440" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1440" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="1441" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1441" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1441" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="1442" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1442" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1442" t="s">
         <v>1441</v>
       </c>
@@ -12423,132 +13476,132 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="1444" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1444" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1444" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="1445" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1445" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1445" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="1446" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1446" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1446" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="1447" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1447" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1447" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="1448" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1448" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1448" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="1449" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1449" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1449" t="s">
         <v>1448</v>
       </c>
     </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1450" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1450" t="s">
         <v>1449</v>
       </c>
     </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1451" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1451" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1452" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1452" t="s">
         <v>1451</v>
       </c>
     </row>
-    <row r="1453" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1453" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1453" t="s">
         <v>1452</v>
       </c>
     </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1454" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1454" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="1455" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1455" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1455" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="1456" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1456" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1456" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="1457" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1457" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1457" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="1458" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1458" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1458" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="1459" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1459" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1459" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="1460" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1460" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1460" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1461" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1461" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1461" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="1462" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1462" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1462" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="1463" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1463" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1463" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="1464" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1464" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1464" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="1465" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1465" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1465" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="1466" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1466" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1466" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="1467" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1467" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1467" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="1468" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1468" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1468" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="1469" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1469" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1469" t="s">
         <v>1468</v>
       </c>
@@ -12558,12 +13611,12 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="1471" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1471" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1471" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="1472" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1472" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1472" t="s">
         <v>1471</v>
       </c>
@@ -12583,22 +13636,22 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1476" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1476" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1477" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1477" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1478" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1478" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1479" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1479" t="s">
         <v>1478</v>
       </c>
@@ -12613,7 +13666,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="1482" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1482" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1482" t="s">
         <v>1481</v>
       </c>
@@ -12623,82 +13676,82 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="1484" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1484" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1484" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="1485" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1485" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1485" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="1486" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1486" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1486" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="1487" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1487" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1487" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="1488" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1488" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1488" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="1489" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1489" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1489" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="1490" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1490" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1490" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="1491" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1491" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1491" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="1492" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1492" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1492" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="1493" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1493" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1493" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="1494" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1494" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1494" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="1495" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1495" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1495" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="1496" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1496" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1496" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="1497" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1497" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1497" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="1498" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1498" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1498" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="1499" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1499" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1499" t="s">
         <v>1498</v>
       </c>
@@ -12708,22 +13761,22 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="1501" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1501" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1501" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="1502" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1502" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1502" t="s">
         <v>1501</v>
       </c>
     </row>
-    <row r="1503" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1503" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1503" t="s">
         <v>1502</v>
       </c>
     </row>
-    <row r="1504" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1504" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1504" t="s">
         <v>1503</v>
       </c>
@@ -12733,37 +13786,37 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="1506" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1506" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1506" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="1507" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1507" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1507" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="1508" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1508" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1508" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="1509" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1509" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1509" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="1510" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1510" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1510" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="1511" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1511" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1511" t="s">
         <v>1510</v>
       </c>
     </row>
-    <row r="1512" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1512" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1512" t="s">
         <v>1511</v>
       </c>
@@ -12778,37 +13831,37 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="1515" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1515" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1515" t="s">
         <v>1514</v>
       </c>
     </row>
-    <row r="1516" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1516" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1516" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="1517" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1517" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1517" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="1518" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1518" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1518" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="1519" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1519" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1519" t="s">
         <v>1518</v>
       </c>
     </row>
-    <row r="1520" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1520" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1520" t="s">
         <v>1519</v>
       </c>
     </row>
-    <row r="1521" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1521" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1521" t="s">
         <v>1520</v>
       </c>
@@ -12818,27 +13871,27 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="1523" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1523" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1523" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="1524" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1524" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1524" t="s">
         <v>1523</v>
       </c>
     </row>
-    <row r="1525" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1525" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1525" t="s">
         <v>1524</v>
       </c>
     </row>
-    <row r="1526" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1526" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1526" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="1527" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1527" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1527" t="s">
         <v>1526</v>
       </c>
@@ -12848,32 +13901,32 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1529" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1529" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1529" t="s">
         <v>1528</v>
       </c>
     </row>
-    <row r="1530" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1530" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1530" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="1531" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1531" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1531" t="s">
         <v>1530</v>
       </c>
     </row>
-    <row r="1532" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1532" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1532" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="1533" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1533" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1533" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="1534" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1534" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1534" t="s">
         <v>1533</v>
       </c>
@@ -12883,7 +13936,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="1536" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1536" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1536" t="s">
         <v>1535</v>
       </c>
@@ -12893,147 +13946,147 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="1538" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1538" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1538" t="s">
         <v>1537</v>
       </c>
     </row>
-    <row r="1539" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1539" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1539" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="1540" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1540" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1540" t="s">
         <v>1539</v>
       </c>
     </row>
-    <row r="1541" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1541" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1541" t="s">
         <v>1540</v>
       </c>
     </row>
-    <row r="1542" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1542" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1542" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="1543" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1543" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1543" t="s">
         <v>1542</v>
       </c>
     </row>
-    <row r="1544" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1544" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1544" t="s">
         <v>1543</v>
       </c>
     </row>
-    <row r="1545" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1545" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1545" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="1546" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1546" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1546" t="s">
         <v>1545</v>
       </c>
     </row>
-    <row r="1547" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1547" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1547" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="1548" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1548" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1548" t="s">
         <v>1547</v>
       </c>
     </row>
-    <row r="1549" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1549" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1549" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="1550" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1550" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1550" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="1551" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1551" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1551" t="s">
         <v>1550</v>
       </c>
     </row>
-    <row r="1552" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1552" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1552" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="1553" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1553" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1553" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="1554" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1554" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1554" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="1555" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1555" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1555" t="s">
         <v>1554</v>
       </c>
     </row>
-    <row r="1556" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1556" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1556" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="1557" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1557" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1557" t="s">
         <v>1556</v>
       </c>
     </row>
-    <row r="1558" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1558" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1558" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="1559" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1559" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1559" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="1560" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1560" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1560" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="1561" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1561" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1561" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="1562" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1562" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1562" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="1563" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1563" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1563" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="1564" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1564" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1564" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="1565" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1565" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1565" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="1566" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1566" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1566" t="s">
         <v>1565</v>
       </c>
@@ -13043,7 +14096,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="1568" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1568" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1568" t="s">
         <v>1567</v>
       </c>
@@ -13053,17 +14106,17 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="1570" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1570" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1570" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="1571" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1571" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1571" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="1572" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1572" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1572" t="s">
         <v>1571</v>
       </c>
@@ -13073,22 +14126,22 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="1574" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1574" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1574" t="s">
         <v>1573</v>
       </c>
     </row>
-    <row r="1575" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1575" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1575" t="s">
         <v>1574</v>
       </c>
     </row>
-    <row r="1576" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1576" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1576" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="1577" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1577" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1577" t="s">
         <v>1576</v>
       </c>
@@ -13098,17 +14151,17 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="1579" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1579" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1579" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="1580" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1580" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1580" t="s">
         <v>1579</v>
       </c>
     </row>
-    <row r="1581" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1581" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1581" t="s">
         <v>1580</v>
       </c>
@@ -13118,52 +14171,52 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="1583" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1583" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1583" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="1584" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1584" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1584" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="1585" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1585" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1585" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="1586" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1586" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1586" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="1587" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1587" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1587" t="s">
         <v>1586</v>
       </c>
     </row>
-    <row r="1588" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1588" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1588" t="s">
         <v>1587</v>
       </c>
     </row>
-    <row r="1589" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1589" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1589" t="s">
         <v>1588</v>
       </c>
     </row>
-    <row r="1590" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1590" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1590" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="1591" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1591" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1591" t="s">
         <v>1590</v>
       </c>
     </row>
-    <row r="1592" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1592" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1592" t="s">
         <v>1591</v>
       </c>
@@ -13173,67 +14226,70 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="1594" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1594" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1594" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="1595" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1595" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1595" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="1596" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1596" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1596" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="1597" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1597" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1597" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="1598" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1598" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1598" t="s">
         <v>1597</v>
       </c>
     </row>
-    <row r="1599" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1599" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1599" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="1600" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1600" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1600" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="1601" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1601" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1601" t="s">
         <v>1600</v>
       </c>
     </row>
-    <row r="1602" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1602" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1602" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="1603" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1603" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1603" t="s">
         <v>1602</v>
       </c>
     </row>
-    <row r="1604" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1604" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1604" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="1605" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1605" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1605" t="s">
         <v>1604</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/DCNames.xlsx
+++ b/DCNames.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Projects\Comic_Sorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23A3F0D-8673-4ECA-A25E-838AC6B6AB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB959992-F11E-4FF7-8B40-C3870263F5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Titles" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -6122,8 +6122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ1605"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1537" workbookViewId="0">
-      <selection activeCell="D503" sqref="D503"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6476,13 +6476,13 @@
         <v>2008</v>
       </c>
       <c r="I4">
-        <v>671</v>
+        <v>200</v>
       </c>
       <c r="J4">
         <v>10</v>
       </c>
       <c r="K4">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="L4">
         <v>713</v>

--- a/DCNames.xlsx
+++ b/DCNames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Projects\Comic_Sorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB959992-F11E-4FF7-8B40-C3870263F5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0676AFB9-F9CA-4006-A474-256C3F9EE9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5529,225 +5529,78 @@
   <autoFilter ref="A1:BZ1605" xr:uid="{0F5CD0D5-D2B5-4057-A9FA-093571400FB3}">
     <filterColumn colId="0">
       <filters>
-        <filter val="All New Batman The Brave And The Bold"/>
-        <filter val="All Star Batman"/>
-        <filter val="All Star Batman &amp; Robin Boy Wonder"/>
-        <filter val="Bat Lash"/>
-        <filter val="Bat Mite"/>
-        <filter val="Batgirl"/>
-        <filter val="Batgirl and the Birds of Prey"/>
-        <filter val="Batgirl and the Birds of Prey Rebirth"/>
+        <filter val="Action Comics Annual"/>
+        <filter val="Animal Man Annual"/>
+        <filter val="Aquaman Annual"/>
         <filter val="Batgirl Annual"/>
-        <filter val="Batgirl Endgame"/>
-        <filter val="Batgirl Futures End"/>
-        <filter val="Batman"/>
-        <filter val="Batman &amp; Outsiders"/>
-        <filter val="Batman &amp; The Outsiders"/>
-        <filter val="Batman (Bane)"/>
-        <filter val="Batman (Joker)"/>
-        <filter val="Batman (Penguin)"/>
-        <filter val="Batman (Riddler)"/>
-        <filter val="Batman 66"/>
-        <filter val="Batman 66 Meets Green Hornet"/>
-        <filter val="Batman 66 Meets Steed And Mrs Peel"/>
-        <filter val="Batman '66 Meets Steed And Mrs Peel"/>
-        <filter val="Batman 66 Meets The Legion of Super Heroes"/>
-        <filter val="Batman 66 Meets The Man From Uncle"/>
-        <filter val="Batman 66 Meets Wonder Woman 77"/>
-        <filter val="Batman 66 the Lost Episode"/>
-        <filter val="Batman 80 Page Giant"/>
-        <filter val="Batman 80 Page Giant 2010"/>
-        <filter val="Batman 80 Page Giant 2011"/>
-        <filter val="Batman and Aquaman"/>
-        <filter val="Batman and Batgirl"/>
-        <filter val="Batman And Catwoman"/>
-        <filter val="Batman And Frankenstein"/>
-        <filter val="Batman and Nightwing"/>
-        <filter val="Batman and Ras Al Ghul"/>
-        <filter val="Batman And Red Hood"/>
-        <filter val="Batman and Red Robin"/>
-        <filter val="Batman and Robin"/>
-        <filter val="Batman and Robin (Court of Owls)"/>
-        <filter val="Batman and Robin (Killer Croc)"/>
-        <filter val="Batman and Robin (Ras al Ghul)"/>
-        <filter val="Batman and Robin (Two Face)"/>
         <filter val="Batman And Robin Annual"/>
-        <filter val="Batman and Robin Eternal"/>
-        <filter val="Batman And Robin Futures End"/>
-        <filter val="Batman and The Outsiders"/>
         <filter val="Batman and the Outsiders Annual"/>
-        <filter val="Batman and the Outsiders Special"/>
-        <filter val="Batman and the Signal"/>
-        <filter val="Batman and Two Face"/>
-        <filter val="Batman And Wonder Woman"/>
         <filter val="Batman Annual"/>
-        <filter val="Batman Arkham Asylum Special"/>
-        <filter val="Batman Arkham City"/>
-        <filter val="Batman Arkham City End Game"/>
-        <filter val="Batman Arkham Knight"/>
         <filter val="Batman Arkham Knight Annual"/>
-        <filter val="Batman Arkham Knight Batgirl and Harley Quinn"/>
-        <filter val="Batman Arkham Knight Genesis"/>
-        <filter val="Batman Arkham Knight Robin Special"/>
-        <filter val="Batman Arkham Unhinged"/>
-        <filter val="Batman Battle For The Cowl"/>
-        <filter val="Batman Battle For The Cowl Arkham"/>
-        <filter val="Batman Battle For The Cowl Commissioner Gordon"/>
-        <filter val="Batman Battle For The Cowl Man Bat"/>
-        <filter val="Batman Battle For The Cowl The Network"/>
-        <filter val="Batman Battle For The Cowl The Underground"/>
-        <filter val="Batman Beyond"/>
-        <filter val="Batman Beyond Rebirth"/>
-        <filter val="Batman Beyond Universe"/>
-        <filter val="Batman Beyond Unlimited"/>
-        <filter val="Batman Black &amp; White"/>
-        <filter val="Batman Blank Comic"/>
-        <filter val="Batman Cacophony"/>
-        <filter val="Batman Catwoman Follow The Money"/>
-        <filter val="Batman Confidential"/>
-        <filter val="Batman Creature of the Night"/>
-        <filter val="Batman Curse of the White Knight"/>
-        <filter val="Batman Damned"/>
-        <filter val="Batman Death Mask"/>
-        <filter val="Batman Doc Savage Special"/>
-        <filter val="Batman Elmer Fudd Special"/>
-        <filter val="Batman Endgame Directors Cut"/>
-        <filter val="Batman Essentials Batman &amp; Son Spec Ed"/>
-        <filter val="Batman Essentials Batman Hush"/>
-        <filter val="Batman Essentials Batman Year One Spec Ed"/>
-        <filter val="Batman Essentials Dark Knight Returns Spec Ed"/>
-        <filter val="Batman Essentials The Black Mirror Spec Ed"/>
-        <filter val="Batman Eternal"/>
-        <filter val="Batman Europa"/>
-        <filter val="Batman Europa Directors Cut"/>
-        <filter val="Batman Futures End"/>
-        <filter val="Batman Gates of Gotham"/>
-        <filter val="Batman Giant"/>
-        <filter val="Batman Gotham After Midnight"/>
-        <filter val="Batman Gotham After Midnite"/>
-        <filter val="Batman Hidden Treasures"/>
-        <filter val="Batman In Barcelona Dragons Knight"/>
-        <filter val="Batman Incorporated"/>
-        <filter val="Batman Incorporated Leviathan Strikes"/>
-        <filter val="Batman Incorporated Special"/>
-        <filter val="Batman Jokers Daughter"/>
-        <filter val="Batman Kings of Fear"/>
-        <filter val="Batman Last Knight On Earth"/>
-        <filter val="Batman Legends of the Dark Knight Special"/>
-        <filter val="Batman Lil Gotham"/>
-        <filter val="Batman Lost"/>
-        <filter val="Batman Odyssey"/>
-        <filter val="Batman Odyssey Vol 2"/>
-        <filter val="Batman Odyssey Vol. 2"/>
-        <filter val="Batman Orphans"/>
-        <filter val="Batman Pennyworth RIP"/>
-        <filter val="Batman Prelude to the Wedding Batgirl Vs. Riddler"/>
-        <filter val="Batman Prelude to the Wedding Harley Vs. Joker"/>
-        <filter val="Batman Prelude to the Wedding Nightwing Vs. Hush"/>
-        <filter val="Batman Prelude to the Wedding Red Hood Vs. Anarky"/>
-        <filter val="Batman Prelude to the Wedding Robin Vs. Ras Al Ghul"/>
-        <filter val="Batman Rebirth"/>
-        <filter val="Batman Return of Bruce Wayne"/>
-        <filter val="Batman Secret Files"/>
-        <filter val="Batman Sins of the Father"/>
-        <filter val="Batman Streets of Gotham"/>
-        <filter val="Batman Strikes"/>
-        <filter val="Batman Superman"/>
-        <filter val="Batman Superman (Doomsday)"/>
         <filter val="Batman Superman Annual"/>
-        <filter val="Batman Superman Futures End"/>
-        <filter val="Batman Teenage Mutant Ninja Turtles"/>
-        <filter val="Batman Teenage Mutant Ninja Turtles Directors Cut"/>
-        <filter val="Batman Teenage Mutant Ninja Turtles II"/>
-        <filter val="Batman Teenage Mutant Ninja Turtles III"/>
-        <filter val="Batman The Brave and The Bold"/>
-        <filter val="Batman The Dark Knight"/>
-        <filter val="Batman The Dark Knight (Clayface)"/>
-        <filter val="Batman The Dark Knight (Joker's Daughter)"/>
-        <filter val="Batman The Dark Knight (Mr. Freeze)"/>
-        <filter val="Batman The Dark Knight (Ventriloquist)"/>
         <filter val="Batman The Dark Knight Annual"/>
-        <filter val="Batman The Dark Prince Charming HC Book 1"/>
-        <filter val="Batman The Dark Prince Charming HC Book 2"/>
-        <filter val="Batman The Dawnbreaker"/>
-        <filter val="Batman The Devastator"/>
-        <filter val="Batman The Drowned"/>
-        <filter val="Batman The Killing Joke New Ptg"/>
-        <filter val="Batman The Merciless"/>
-        <filter val="Batman The Murder Machine"/>
-        <filter val="Batman The Red Death"/>
-        <filter val="Batman The Return"/>
-        <filter val="Batman The Shadow"/>
-        <filter val="Batman The Unseen"/>
-        <filter val="Batman Universe"/>
-        <filter val="Batman Vs Scarecrow"/>
-        <filter val="Batman Vs. Ras Al Ghul"/>
-        <filter val="Batman White Knight"/>
-        <filter val="Batman White Knight Presents Von Freeze"/>
-        <filter val="Batman Who Laughs"/>
-        <filter val="Batman Who Laughs: The Grim Knight"/>
-        <filter val="Batman Widening Gyre"/>
-        <filter val="Batman Zero Year Directors Cut"/>
-        <filter val="Batman: Curse of the White Knight"/>
-        <filter val="Batman: Gotham After Midnite"/>
-        <filter val="Batmans Grave"/>
-        <filter val="Batman's Grave"/>
-        <filter val="Batwing"/>
-        <filter val="Batwing Futures End"/>
-        <filter val="Batwoman"/>
         <filter val="Batwoman Annual"/>
-        <filter val="Batwoman Futures End"/>
-        <filter val="Batwoman Rebirth"/>
-        <filter val="Batwoman Supergirl Worlds Finest Giant"/>
-        <filter val="Beware The Batman"/>
-        <filter val="Billy Batson &amp; Magic of Shazam"/>
-        <filter val="Billy Batson and The Magic of Shazam"/>
-        <filter val="Blackest Night Batman"/>
-        <filter val="Brave &amp; The Bold Batman &amp; Wonder Woman"/>
-        <filter val="Bruce Wayne The Road Home Batman &amp; Robin"/>
-        <filter val="Bruce Wayne: The Road Home: Batgirl"/>
-        <filter val="Convergence Batgirl"/>
-        <filter val="Convergence Batman &amp; Robin"/>
-        <filter val="Convergence Batman &amp; The Outsiders"/>
-        <filter val="Convergence Batman Shadow of the Bat"/>
-        <filter val="Damian Son of Batman"/>
-        <filter val="DC Comics Essentials Batman"/>
-        <filter val="DC Comics Essentials Batman and Robin"/>
-        <filter val="DC Comics Essentials Batman Death of The Family"/>
-        <filter val="DC Comics Presents Batman"/>
-        <filter val="DC Comics Presents Batman Arkham"/>
-        <filter val="DC Comics Presents Batman Beyond"/>
-        <filter val="DC Comics Presents Batman Catwoman"/>
-        <filter val="DC Comics Presents Batman Conspiracy"/>
-        <filter val="DC Comics Presents Batman Dark City"/>
-        <filter val="DC Comics Presents Batman Gotham Noir"/>
-        <filter val="DC Comics Presents Batman Urban Legends"/>
-        <filter val="DC Justice League Essentials Batman"/>
-        <filter val="DC Retroactive Batman The 70s"/>
-        <filter val="DC Retroactive Batman the 80s"/>
-        <filter val="DC Retroactive Batman the 90s"/>
-        <filter val="Detective Comics (Man Bat)"/>
-        <filter val="Dollar Comics Batman"/>
-        <filter val="Dollar Comics Batman Adventures"/>
-        <filter val="Dollar Comics Batman Huntress Cry For Blood"/>
-        <filter val="Dollar Comics Batman Shadow of the Bat"/>
-        <filter val="Flashpoint Batman Knight of Vengeance"/>
-        <filter val="Forever Evil Aftermath Batman Vs Bane"/>
-        <filter val="G.I. Combat"/>
-        <filter val="Gotham Gazette Batman Dead"/>
-        <filter val="JLA Gods And Monsters Batman"/>
-        <filter val="Justice League Darkseid War Batman"/>
-        <filter val="Mortal Kombat X"/>
-        <filter val="Mother Panic Batman Special"/>
-        <filter val="Robin Son of Batman"/>
-        <filter val="Sgt Rock Lost Battalion"/>
-        <filter val="Sgt Rock The Lost Battalion"/>
-        <filter val="Sgt. Rock The Lost Battalion"/>
-        <filter val="Superman Batman"/>
+        <filter val="Catwoman Annual"/>
+        <filter val="Curse of Brimstone Annual"/>
+        <filter val="Damage Annual"/>
+        <filter val="DC Comics Bombshells Annual"/>
+        <filter val="Deathstroke Annual"/>
+        <filter val="Detective Comics Annual"/>
+        <filter val="Dollar Comics Tales of the Teen Titans Annual"/>
+        <filter val="Earth 2 Annual"/>
+        <filter val="Earth 2 Society Annual"/>
+        <filter val="Flash Annual"/>
+        <filter val="Gotham Academy Annual"/>
+        <filter val="Gotham By Midnight Annual"/>
+        <filter val="Grayson Annual"/>
+        <filter val="Green Arrow Annual"/>
+        <filter val="Green Lantern Annual"/>
+        <filter val="Green Lantern Corps Annual"/>
+        <filter val="Green Lantern New Guardians Annual"/>
+        <filter val="Green Lanterns Annual"/>
+        <filter val="Harley Quinn Annual"/>
+        <filter val="Hellblazer Annual"/>
+        <filter val="House of Mystery Halloween Annual"/>
+        <filter val="Injustice 2 Annual"/>
+        <filter val="Injustice Gods Among Us Annual"/>
+        <filter val="Injustice Gods Among Us Year Five Annual"/>
+        <filter val="Injustice Gods Among Us Year Four Annual"/>
+        <filter val="Injustice Gods Among Us Year Three Annual"/>
+        <filter val="Injustice Gods Among Us Year Two Annual"/>
+        <filter val="Justice League Annual"/>
+        <filter val="Justice League Dark Annual"/>
+        <filter val="Justice League International Annual"/>
+        <filter val="Justice League of America Annual"/>
+        <filter val="Justice League United Annual"/>
+        <filter val="Justice Society of America Annual"/>
+        <filter val="Legion of Super Heroes Annual"/>
+        <filter val="Lobo Annual"/>
+        <filter val="New Suicide Squad Annual"/>
+        <filter val="Nightwing Annual"/>
+        <filter val="Rebels Annual Starro The Conqueror"/>
+        <filter val="Red Hood And The Outlaws Annual"/>
+        <filter val="Red Hood Outlaw Annual"/>
+        <filter val="Red Lanterns Annual"/>
+        <filter val="Sideways Annual"/>
+        <filter val="Silencer Annual"/>
+        <filter val="Sinestro Annual"/>
+        <filter val="Suicide Squad Annual"/>
+        <filter val="Super Sons Annual"/>
+        <filter val="Superboy Annual"/>
+        <filter val="Supergirl Annual"/>
+        <filter val="Superman Annual"/>
         <filter val="Superman Batman Annual"/>
-        <filter val="Superman Batman Vs Vampires Werewolves"/>
-        <filter val="Superman Batman Vs. Vampires Werewolves"/>
-        <filter val="Tales From The Dark Multiverse Batman Knightfall"/>
+        <filter val="Superman Wonder Woman Annual"/>
+        <filter val="Swamp Thing Annual"/>
+        <filter val="Teen Titans Annual"/>
+        <filter val="Teen Titans Annual 2009"/>
+        <filter val="Teen Titans The Lost Annual"/>
+        <filter val="Terrifics Annual"/>
+        <filter val="Titans Annual"/>
+        <filter val="Titans Annual 2011"/>
+        <filter val="Trinity Annual"/>
+        <filter val="Wonder Woman Annual"/>
+        <filter val="Worlds Finest Annual"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6123,7 +5976,7 @@
   <dimension ref="A1:BZ1605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B107" sqref="A1:BZ1605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6453,7 +6306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6539,7 +6392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:78" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6622,7 +6475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6648,7 +6501,7 @@
         <v>2008</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -6845,7 +6698,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -6918,7 +6771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -7003,7 +6856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -7048,7 +6901,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -7104,7 +6957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -7287,7 +7140,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -7367,7 +7220,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -7407,7 +7260,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -7507,7 +7360,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -7613,7 +7466,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -7661,7 +7514,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -7780,7 +7633,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7815,7 +7668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7880,7 +7733,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7919,7 +7772,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -8029,7 +7882,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -8104,7 +7957,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -8197,7 +8050,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -8262,7 +8115,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -8302,7 +8155,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -8360,7 +8213,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -8426,7 +8279,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -8496,7 +8349,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8566,7 +8419,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8624,7 +8477,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8664,7 +8517,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8709,7 +8562,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8744,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8834,7 +8687,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8869,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -8904,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -8939,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -9022,7 +8875,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -9082,7 +8935,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -9116,7 +8969,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -9174,7 +9027,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -9234,7 +9087,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -9274,7 +9127,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -9309,7 +9162,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -9409,7 +9262,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:30" hidden="1" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -9454,7 +9307,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:30" hidden="1" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -9489,7 +9342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="316" spans="1:30" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -9620,7 +9473,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:48" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:48" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -9774,7 +9627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -9824,7 +9677,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -9864,7 +9717,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -9899,7 +9752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -9934,7 +9787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -9948,7 +9801,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -10043,7 +9896,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -10066,7 +9919,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -10140,7 +9993,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -10238,7 +10091,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -10254,7 +10107,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -10289,7 +10142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -10409,7 +10262,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -10444,7 +10297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -10519,7 +10372,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -10559,7 +10412,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -10594,7 +10447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -10694,7 +10547,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -10828,7 +10681,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -10953,7 +10806,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -11013,7 +10866,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -11126,7 +10979,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -11171,7 +11024,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -11231,7 +11084,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -11321,7 +11174,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>502</v>
       </c>
@@ -11337,7 +11190,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>504</v>
       </c>
@@ -11352,22 +11205,22 @@
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>510</v>
       </c>
@@ -11382,7 +11235,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>513</v>
       </c>
@@ -11392,7 +11245,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>515</v>
       </c>
@@ -11432,7 +11285,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>523</v>
       </c>
@@ -11442,12 +11295,12 @@
         <v>524</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>526</v>
       </c>
@@ -11477,7 +11330,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>532</v>
       </c>
@@ -11537,7 +11390,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A545" t="s">
         <v>544</v>
       </c>
@@ -11597,7 +11450,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="551" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A551" t="s">
         <v>550</v>
       </c>
@@ -11647,7 +11500,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A561" t="s">
         <v>560</v>
       </c>
@@ -11662,12 +11515,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A564" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A565" t="s">
         <v>564</v>
       </c>
@@ -11682,7 +11535,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A568" t="s">
         <v>567</v>
       </c>
@@ -11702,7 +11555,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A572" t="s">
         <v>571</v>
       </c>
@@ -11832,7 +11685,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="598" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A598" t="s">
         <v>597</v>
       </c>
@@ -11852,7 +11705,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="602" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A602" t="s">
         <v>601</v>
       </c>
@@ -11908,7 +11761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="603" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A603" t="s">
         <v>602</v>
       </c>
@@ -11938,7 +11791,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A609" t="s">
         <v>608</v>
       </c>
@@ -11953,7 +11806,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A612" t="s">
         <v>611</v>
       </c>
@@ -11998,7 +11851,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A621" t="s">
         <v>620</v>
       </c>
@@ -12008,12 +11861,12 @@
         <v>621</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A623" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A624" t="s">
         <v>623</v>
       </c>
@@ -12068,7 +11921,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A635" t="s">
         <v>634</v>
       </c>
@@ -12138,7 +11991,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A649" t="s">
         <v>648</v>
       </c>
@@ -12238,7 +12091,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A669" t="s">
         <v>668</v>
       </c>
@@ -12288,7 +12141,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="679" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A679" t="s">
         <v>678</v>
       </c>
@@ -12298,7 +12151,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="681" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A681" t="s">
         <v>680</v>
       </c>
@@ -12333,7 +12186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A682" t="s">
         <v>681</v>
       </c>
@@ -12343,17 +12196,17 @@
         <v>682</v>
       </c>
     </row>
-    <row r="684" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A684" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="685" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A685" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="686" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A686" t="s">
         <v>685</v>
       </c>
@@ -12393,7 +12246,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="694" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A694" t="s">
         <v>693</v>
       </c>
@@ -12403,7 +12256,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="696" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A696" t="s">
         <v>695</v>
       </c>
@@ -12487,7 +12340,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="699" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A699" t="s">
         <v>698</v>
       </c>
@@ -12612,7 +12465,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="718" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A718" t="s">
         <v>717</v>
       </c>
@@ -12647,7 +12500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="719" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A719" t="s">
         <v>718</v>
       </c>
@@ -12700,7 +12553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="720" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A720" t="s">
         <v>719</v>
       </c>
@@ -12828,7 +12681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="730" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A730" t="s">
         <v>729</v>
       </c>
@@ -12863,7 +12716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="731" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A731" t="s">
         <v>730</v>
       </c>
@@ -12966,7 +12819,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="742" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A742" t="s">
         <v>741</v>
       </c>
@@ -13036,7 +12889,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="750" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A750" t="s">
         <v>749</v>
       </c>
@@ -13071,7 +12924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="751" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A751" t="s">
         <v>750</v>
       </c>
@@ -13111,7 +12964,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="753" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A753" t="s">
         <v>752</v>
       </c>
@@ -13196,17 +13049,17 @@
         <v>762</v>
       </c>
     </row>
-    <row r="764" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A764" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="765" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A765" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="766" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A766" t="s">
         <v>765</v>
       </c>
@@ -13251,7 +13104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A769" t="s">
         <v>768</v>
       </c>
@@ -13291,7 +13144,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="771" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A771" t="s">
         <v>770</v>
       </c>
@@ -13354,7 +13207,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="774" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A774" t="s">
         <v>773</v>
       </c>
@@ -13422,12 +13275,12 @@
         <v>776</v>
       </c>
     </row>
-    <row r="778" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
       <c r="A778" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="779" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
       <c r="A779" t="s">
         <v>778</v>
       </c>
@@ -13462,12 +13315,12 @@
         <v>784</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A786" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A787" t="s">
         <v>786</v>
       </c>
@@ -13487,7 +13340,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A791" t="s">
         <v>790</v>
       </c>
@@ -13497,12 +13350,12 @@
         <v>791</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A793" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A794" t="s">
         <v>793</v>
       </c>
@@ -13517,7 +13370,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A797" t="s">
         <v>796</v>
       </c>
@@ -13552,22 +13405,22 @@
         <v>802</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A804" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A805" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A806" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A807" t="s">
         <v>806</v>
       </c>
@@ -13577,12 +13430,12 @@
         <v>807</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A809" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A810" t="s">
         <v>809</v>
       </c>
@@ -13592,7 +13445,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A812" t="s">
         <v>811</v>
       </c>
@@ -13607,7 +13460,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A815" t="s">
         <v>814</v>
       </c>
@@ -13617,7 +13470,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A817" t="s">
         <v>816</v>
       </c>
@@ -13642,12 +13495,12 @@
         <v>820</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A822" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A823" t="s">
         <v>822</v>
       </c>
@@ -13752,7 +13605,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A844" t="s">
         <v>843</v>
       </c>
@@ -13762,7 +13615,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A846" t="s">
         <v>845</v>
       </c>
@@ -13787,12 +13640,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A851" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A852" t="s">
         <v>851</v>
       </c>
@@ -13827,7 +13680,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A859" t="s">
         <v>858</v>
       </c>
@@ -13847,12 +13700,12 @@
         <v>861</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A863" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A864" t="s">
         <v>863</v>
       </c>
@@ -13867,7 +13720,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="867" spans="1:54" hidden="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A867" t="s">
         <v>866</v>
       </c>
@@ -13920,7 +13773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="868" spans="1:54" hidden="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:54" x14ac:dyDescent="0.45">
       <c r="A868" t="s">
         <v>867</v>
       </c>
@@ -13978,7 +13831,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="870" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:54" hidden="1" x14ac:dyDescent="0.45">
       <c r="A870" t="s">
         <v>869</v>
       </c>
@@ -13993,7 +13846,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="873" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:54" hidden="1" x14ac:dyDescent="0.45">
       <c r="A873" t="s">
         <v>872</v>
       </c>
@@ -14028,12 +13881,12 @@
         <v>878</v>
       </c>
     </row>
-    <row r="880" spans="1:54" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:54" hidden="1" x14ac:dyDescent="0.45">
       <c r="A880" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="881" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A881" t="s">
         <v>880</v>
       </c>
@@ -14178,7 +14031,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="898" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A898" t="s">
         <v>897</v>
       </c>
@@ -14228,7 +14081,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="902" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A902" t="s">
         <v>901</v>
       </c>
@@ -14316,7 +14169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A910" t="s">
         <v>909</v>
       </c>
@@ -14336,7 +14189,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="914" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A914" t="s">
         <v>913</v>
       </c>
@@ -14346,7 +14199,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="916" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A916" t="s">
         <v>915</v>
       </c>
@@ -14356,7 +14209,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="918" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A918" t="s">
         <v>917</v>
       </c>
@@ -14431,7 +14284,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="927" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A927" t="s">
         <v>926</v>
       </c>
@@ -14441,12 +14294,12 @@
         <v>927</v>
       </c>
     </row>
-    <row r="929" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A929" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="930" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A930" t="s">
         <v>929</v>
       </c>
@@ -14496,7 +14349,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="940" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A940" t="s">
         <v>939</v>
       </c>
@@ -14561,7 +14414,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="947" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A947" t="s">
         <v>946</v>
       </c>
@@ -14601,7 +14454,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="949" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A949" t="s">
         <v>948</v>
       </c>
@@ -14611,7 +14464,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="951" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A951" t="s">
         <v>950</v>
       </c>
@@ -14631,12 +14484,12 @@
         <v>953</v>
       </c>
     </row>
-    <row r="955" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A955" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="956" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A956" t="s">
         <v>955</v>
       </c>
@@ -14691,7 +14544,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A967" t="s">
         <v>966</v>
       </c>
@@ -14781,7 +14634,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A985" t="s">
         <v>984</v>
       </c>
@@ -14816,12 +14669,12 @@
         <v>990</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="992" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A992" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="993" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="993" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A993" t="s">
         <v>992</v>
       </c>
@@ -14846,7 +14699,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="998" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="998" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A998" t="s">
         <v>997</v>
       </c>
@@ -14911,7 +14764,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="1005" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1005" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1005" t="s">
         <v>1004</v>
       </c>
@@ -14971,7 +14824,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="1011" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1011" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1011" t="s">
         <v>1010</v>
       </c>
@@ -15006,7 +14859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1012" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1012" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1012" t="s">
         <v>1011</v>
       </c>
@@ -15021,12 +14874,12 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="1015" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1015" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1015" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="1016" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1016" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1016" t="s">
         <v>1015</v>
       </c>
@@ -15056,7 +14909,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="1022" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1022" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1022" t="s">
         <v>1021</v>
       </c>
@@ -15096,7 +14949,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="1024" spans="1:18" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1024" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1024" t="s">
         <v>1023</v>
       </c>
@@ -15154,7 +15007,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1026" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1026" t="s">
         <v>1025</v>
       </c>
@@ -15174,7 +15027,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1030" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1030" t="s">
         <v>1029</v>
       </c>
@@ -15214,7 +15067,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1038" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1038" t="s">
         <v>1037</v>
       </c>
@@ -15229,7 +15082,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1041" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1041" t="s">
         <v>1040</v>
       </c>
@@ -15254,12 +15107,12 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1046" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1046" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1047" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1047" t="s">
         <v>1046</v>
       </c>
@@ -15279,7 +15132,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1051" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1051" t="s">
         <v>1050</v>
       </c>
@@ -15309,7 +15162,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1057" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1057" t="s">
         <v>1056</v>
       </c>
@@ -15454,7 +15307,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="1086" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1086" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1086" t="s">
         <v>1085</v>
       </c>
@@ -15489,7 +15342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1087" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1087" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1087" t="s">
         <v>1086</v>
       </c>
@@ -15524,7 +15377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1088" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1088" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1088" t="s">
         <v>1087</v>
       </c>
@@ -15554,7 +15407,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1094" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1094" t="s">
         <v>1093</v>
       </c>
@@ -15609,7 +15462,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="1105" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1105" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1105" t="s">
         <v>1104</v>
       </c>
@@ -15634,7 +15487,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="1110" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1110" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1110" t="s">
         <v>1109</v>
       </c>
@@ -15712,7 +15565,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="1116" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1116" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1116" t="s">
         <v>1115</v>
       </c>
@@ -15722,7 +15575,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="1118" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1118" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1118" t="s">
         <v>1117</v>
       </c>
@@ -15780,7 +15633,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="1120" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1120" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1120" t="s">
         <v>1119</v>
       </c>
@@ -15815,7 +15668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1121" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1121" t="s">
         <v>1120</v>
       </c>
@@ -15870,7 +15723,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="1126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1126" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1126" t="s">
         <v>1125</v>
       </c>
@@ -15890,7 +15743,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="1130" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1130" t="s">
         <v>1129</v>
       </c>
@@ -15960,12 +15813,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1132" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1132" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="1133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1133" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1133" t="s">
         <v>1132</v>
       </c>
@@ -15985,7 +15838,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="1137" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1137" spans="1:42" x14ac:dyDescent="0.45">
       <c r="A1137" t="s">
         <v>1136</v>
       </c>
@@ -16068,7 +15921,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="1144" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="1144" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1144" t="s">
         <v>1143</v>
       </c>
@@ -16098,7 +15951,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="1150" spans="1:42" x14ac:dyDescent="0.45">
+    <row r="1150" spans="1:42" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1150" t="s">
         <v>1149</v>
       </c>
@@ -16123,12 +15976,12 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="1155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1155" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1155" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="1156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1156" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1156" t="s">
         <v>1155</v>
       </c>
@@ -16153,7 +16006,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="1161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1161" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1161" t="s">
         <v>1160</v>
       </c>
@@ -16163,7 +16016,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="1163" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1163" t="s">
         <v>1162</v>
       </c>
@@ -16258,12 +16111,12 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1176" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1176" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1177" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1177" t="s">
         <v>1176</v>
       </c>
@@ -16328,7 +16181,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1190" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1190" t="s">
         <v>1189</v>
       </c>
@@ -16358,7 +16211,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1196" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1196" t="s">
         <v>1195</v>
       </c>
@@ -16413,7 +16266,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1207" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1207" t="s">
         <v>1206</v>
       </c>
@@ -16443,7 +16296,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1213" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1213" t="s">
         <v>1212</v>
       </c>
@@ -16463,12 +16316,12 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="1217" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1217" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1217" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="1218" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1218" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1218" t="s">
         <v>1217</v>
       </c>
@@ -16493,7 +16346,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="1223" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1223" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1223" t="s">
         <v>1222</v>
       </c>
@@ -16518,7 +16371,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="1228" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1228" t="s">
         <v>1227</v>
       </c>
@@ -16553,7 +16406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1229" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1229" t="s">
         <v>1228</v>
       </c>
@@ -16593,7 +16446,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="1231" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1231" t="s">
         <v>1230</v>
       </c>
@@ -16628,7 +16481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1232" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1232" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1232" t="s">
         <v>1231</v>
       </c>
@@ -16638,7 +16491,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1234" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1234" t="s">
         <v>1233</v>
       </c>
@@ -16673,12 +16526,12 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1241" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1241" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1242" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1242" t="s">
         <v>1241</v>
       </c>
@@ -16768,7 +16621,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="1260" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1260" t="s">
         <v>1259</v>
       </c>
@@ -16848,7 +16701,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1270" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1270" t="s">
         <v>1269</v>
       </c>
@@ -16893,7 +16746,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1279" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1279" t="s">
         <v>1278</v>
       </c>
@@ -16908,7 +16761,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="1282" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1282" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1282" t="s">
         <v>1281</v>
       </c>
@@ -16973,7 +16826,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="1289" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1289" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1289" t="s">
         <v>1288</v>
       </c>
@@ -16988,7 +16841,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1292" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1292" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A1292" t="s">
         <v>1291</v>
       </c>
@@ -17038,7 +16891,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="1296" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1296" spans="1:24" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1296" t="s">
         <v>1295</v>
       </c>
@@ -17083,7 +16936,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1305" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1305" t="s">
         <v>1304</v>
       </c>
@@ -17093,7 +16946,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1307" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1307" t="s">
         <v>1306</v>
       </c>
@@ -17178,12 +17031,12 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1324" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1324" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1325" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1325" t="s">
         <v>1324</v>
       </c>
@@ -17203,22 +17056,22 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1329" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1329" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1330" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1330" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1331" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1331" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1332" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1332" t="s">
         <v>1331</v>
       </c>
@@ -17258,22 +17111,22 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1340" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1340" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1341" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1341" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1342" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1342" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1343" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1343" t="s">
         <v>1342</v>
       </c>
@@ -17283,7 +17136,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="1345" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1345" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1345" t="s">
         <v>1344</v>
       </c>
@@ -17318,7 +17171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1346" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1346" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1346" t="s">
         <v>1345</v>
       </c>
@@ -17373,12 +17226,12 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="1351" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1351" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1351" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="1352" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1352" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1352" t="s">
         <v>1351</v>
       </c>
@@ -17433,7 +17286,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="1357" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1357" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1357" t="s">
         <v>1356</v>
       </c>
@@ -17443,7 +17296,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="1359" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1359" spans="1:36" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1359" t="s">
         <v>1358</v>
       </c>
@@ -17483,7 +17336,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1367" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1367" t="s">
         <v>1366</v>
       </c>
@@ -17498,7 +17351,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1370" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1370" t="s">
         <v>1369</v>
       </c>
@@ -17513,7 +17366,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1373" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1373" t="s">
         <v>1372</v>
       </c>
@@ -17523,7 +17376,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1375" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1375" t="s">
         <v>1374</v>
       </c>
@@ -17608,7 +17461,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1392" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1392" t="s">
         <v>1391</v>
       </c>
@@ -17643,7 +17496,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="1399" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1399" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1399" t="s">
         <v>1398</v>
       </c>
@@ -17693,22 +17546,22 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="1403" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1403" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1403" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="1404" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1404" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1404" t="s">
         <v>1403</v>
       </c>
     </row>
-    <row r="1405" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1405" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1405" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="1406" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1406" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1406" t="s">
         <v>1405</v>
       </c>
@@ -17733,7 +17586,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="1411" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1411" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1411" t="s">
         <v>1410</v>
       </c>
@@ -17758,7 +17611,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="1416" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1416" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1416" t="s">
         <v>1415</v>
       </c>
@@ -17798,7 +17651,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="1424" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1424" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1424" t="s">
         <v>1423</v>
       </c>
@@ -17833,7 +17686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1425" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1425" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1425" t="s">
         <v>1424</v>
       </c>
@@ -17868,7 +17721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1426" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1426" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1426" t="s">
         <v>1425</v>
       </c>
@@ -17908,7 +17761,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="1428" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1428" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1428" t="s">
         <v>1427</v>
       </c>
@@ -17948,7 +17801,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="1436" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1436" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1436" t="s">
         <v>1435</v>
       </c>
@@ -17983,7 +17836,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="1443" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1443" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1443" t="s">
         <v>1442</v>
       </c>
@@ -18023,7 +17876,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="1451" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1451" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1451" t="s">
         <v>1450</v>
       </c>
@@ -18088,7 +17941,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="1458" spans="1:30" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1458" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1458" t="s">
         <v>1457</v>
       </c>
@@ -18138,7 +17991,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="1462" spans="1:30" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1462" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1462" t="s">
         <v>1461</v>
       </c>
@@ -18183,7 +18036,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="1465" spans="1:30" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1465" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1465" t="s">
         <v>1464</v>
       </c>
@@ -18238,7 +18091,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="1470" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1470" spans="1:30" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1470" t="s">
         <v>1469</v>
       </c>
@@ -18253,17 +18106,17 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="1473" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1473" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1473" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="1474" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1474" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1474" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="1475" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1475" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1475" t="s">
         <v>1474</v>
       </c>
@@ -18288,12 +18141,12 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="1480" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1480" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1480" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="1481" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1481" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1481" t="s">
         <v>1480</v>
       </c>
@@ -18303,7 +18156,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="1483" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1483" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1483" t="s">
         <v>1482</v>
       </c>
@@ -18333,7 +18186,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="1489" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1489" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1489" t="s">
         <v>1488</v>
       </c>
@@ -18418,7 +18271,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="1500" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1500" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1500" t="s">
         <v>1499</v>
       </c>
@@ -18443,7 +18296,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="1505" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1505" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1505" t="s">
         <v>1504</v>
       </c>
@@ -18483,12 +18336,12 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="1513" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1513" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1513" t="s">
         <v>1512</v>
       </c>
     </row>
-    <row r="1514" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1514" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1514" t="s">
         <v>1513</v>
       </c>
@@ -18528,7 +18381,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="1522" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1522" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1522" t="s">
         <v>1521</v>
       </c>
@@ -18623,7 +18476,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="1535" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1535" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1535" t="s">
         <v>1534</v>
       </c>
@@ -18633,7 +18486,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="1537" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1537" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1537" t="s">
         <v>1536</v>
       </c>
@@ -18773,7 +18626,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="1565" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1565" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1565" t="s">
         <v>1564</v>
       </c>
@@ -18813,7 +18666,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="1567" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1567" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1567" t="s">
         <v>1566</v>
       </c>
@@ -18823,7 +18676,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="1569" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1569" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1569" t="s">
         <v>1568</v>
       </c>
@@ -18843,7 +18696,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="1573" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1573" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1573" t="s">
         <v>1572</v>
       </c>
@@ -18868,7 +18721,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="1578" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1578" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1578" t="s">
         <v>1577</v>
       </c>
@@ -18888,7 +18741,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="1582" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1582" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1582" t="s">
         <v>1581</v>
       </c>
@@ -18943,7 +18796,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="1593" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1593" spans="1:1" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1593" t="s">
         <v>1592</v>
       </c>

--- a/DCNames.xlsx
+++ b/DCNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Projects\Comic_Sorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A1E6D7-1F86-4ECE-A146-5FC673D4BC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60CCDC0-29E2-4DA2-B54B-274272E56669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8144,7 +8144,7 @@
   <dimension ref="A1:BZ1609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D801" sqref="D801"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76123,7 +76123,7 @@
         <v>1350</v>
       </c>
       <c r="B1351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1351">
         <v>1</v>
@@ -79123,7 +79123,7 @@
         <v>1410</v>
       </c>
       <c r="B1411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1411">
         <v>1</v>

--- a/DCNames.xlsx
+++ b/DCNames.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bossh\Projects\Comic_Sorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60CCDC0-29E2-4DA2-B54B-274272E56669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD4CA67-D978-4199-A7AB-57CDDE273AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14682" uniqueCount="2530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14913" uniqueCount="2538">
   <si>
     <t>DC</t>
   </si>
@@ -7623,6 +7623,30 @@
   </si>
   <si>
     <t>Detective_Comics_Annual</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Villian</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Heroes</t>
+  </si>
+  <si>
+    <t>Wildstorm</t>
+  </si>
+  <si>
+    <t>Special</t>
   </si>
 </sst>
 </file>
@@ -8144,7 +8168,7 @@
   <dimension ref="A1:BZ1609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G375" sqref="G375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8480,6 +8504,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>609</v>
+      </c>
       <c r="G2" t="s">
         <v>1865</v>
       </c>
@@ -8581,6 +8608,9 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" t="s">
+        <v>2530</v>
+      </c>
       <c r="G3">
         <v>10</v>
       </c>
@@ -8634,6 +8664,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
       <c r="G4">
         <v>11</v>
       </c>
@@ -8705,6 +8738,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
       <c r="G5" t="s">
         <v>1865</v>
       </c>
@@ -8788,6 +8824,9 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
       <c r="G6">
         <v>1</v>
       </c>
@@ -8847,6 +8886,9 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
       <c r="G7" t="s">
         <v>1865</v>
       </c>
@@ -9016,6 +9058,9 @@
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
       <c r="G9">
         <v>1</v>
       </c>
@@ -9075,6 +9120,9 @@
       <c r="E10">
         <v>0</v>
       </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
@@ -9176,6 +9224,9 @@
       <c r="E11">
         <v>0</v>
       </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
       <c r="G11" t="s">
         <v>1865</v>
       </c>
@@ -9241,6 +9292,9 @@
       <c r="E12">
         <v>0</v>
       </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
@@ -9294,6 +9348,9 @@
       <c r="E13">
         <v>0</v>
       </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
       <c r="G13">
         <v>1</v>
       </c>
@@ -9395,6 +9452,9 @@
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
       <c r="G14">
         <v>3</v>
       </c>
@@ -9502,6 +9562,9 @@
       <c r="E15">
         <v>0</v>
       </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" t="s">
         <v>1865</v>
       </c>
@@ -9603,6 +9666,9 @@
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="F16" t="s">
+        <v>2535</v>
+      </c>
       <c r="G16" t="s">
         <v>1865</v>
       </c>
@@ -9656,6 +9722,9 @@
       <c r="E17">
         <v>0</v>
       </c>
+      <c r="F17" t="s">
+        <v>399</v>
+      </c>
       <c r="G17">
         <v>12</v>
       </c>
@@ -9765,6 +9834,9 @@
       <c r="E19">
         <v>0</v>
       </c>
+      <c r="F19" t="s">
+        <v>2535</v>
+      </c>
       <c r="G19" t="s">
         <v>1865</v>
       </c>
@@ -9884,6 +9956,9 @@
       <c r="E20">
         <v>0</v>
       </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" t="s">
         <v>1865</v>
       </c>
@@ -10005,6 +10080,9 @@
       <c r="E22">
         <v>0</v>
       </c>
+      <c r="F22" t="s">
+        <v>2530</v>
+      </c>
       <c r="G22">
         <v>12</v>
       </c>
@@ -10058,6 +10136,9 @@
       <c r="E23">
         <v>0</v>
       </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" t="s">
         <v>1865</v>
       </c>
@@ -10111,6 +10192,9 @@
       <c r="E24">
         <v>0</v>
       </c>
+      <c r="F24" t="s">
+        <v>2532</v>
+      </c>
       <c r="G24">
         <v>10</v>
       </c>
@@ -10202,6 +10286,9 @@
       <c r="E26">
         <v>0</v>
       </c>
+      <c r="F26" t="s">
+        <v>2530</v>
+      </c>
       <c r="G26">
         <v>1</v>
       </c>
@@ -10255,6 +10342,9 @@
       <c r="E27">
         <v>0</v>
       </c>
+      <c r="F27" t="s">
+        <v>2530</v>
+      </c>
       <c r="G27">
         <v>10</v>
       </c>
@@ -10308,6 +10398,9 @@
       <c r="E28">
         <v>0</v>
       </c>
+      <c r="F28" t="s">
+        <v>2530</v>
+      </c>
       <c r="G28">
         <v>11</v>
       </c>
@@ -10361,6 +10454,9 @@
       <c r="E29">
         <v>0</v>
       </c>
+      <c r="F29" t="s">
+        <v>2530</v>
+      </c>
       <c r="G29">
         <v>10</v>
       </c>
@@ -10414,6 +10510,9 @@
       <c r="E30">
         <v>0</v>
       </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
       <c r="G30">
         <v>12</v>
       </c>
@@ -10467,6 +10566,9 @@
       <c r="E31">
         <v>0</v>
       </c>
+      <c r="F31" t="s">
+        <v>2534</v>
+      </c>
       <c r="G31">
         <v>10</v>
       </c>
@@ -10520,6 +10622,9 @@
       <c r="E32">
         <v>0</v>
       </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
       <c r="G32">
         <v>1</v>
       </c>
@@ -10609,6 +10714,9 @@
       <c r="E33">
         <v>0</v>
       </c>
+      <c r="F33" t="s">
+        <v>2530</v>
+      </c>
       <c r="G33">
         <v>12</v>
       </c>
@@ -10662,6 +10770,9 @@
       <c r="E34">
         <v>0</v>
       </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
       <c r="G34">
         <v>1</v>
       </c>
@@ -10715,6 +10826,9 @@
       <c r="E35">
         <v>0</v>
       </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
       <c r="G35" t="s">
         <v>1865</v>
       </c>
@@ -10810,6 +10924,9 @@
       <c r="E36">
         <v>0</v>
       </c>
+      <c r="F36" t="s">
+        <v>609</v>
+      </c>
       <c r="G36">
         <v>1</v>
       </c>
@@ -10901,6 +11018,9 @@
       <c r="E38">
         <v>0</v>
       </c>
+      <c r="F38" t="s">
+        <v>2533</v>
+      </c>
       <c r="G38">
         <v>12</v>
       </c>
@@ -10992,6 +11112,9 @@
       <c r="E40">
         <v>0</v>
       </c>
+      <c r="F40" t="s">
+        <v>368</v>
+      </c>
       <c r="G40" t="s">
         <v>1865</v>
       </c>
@@ -11051,6 +11174,9 @@
       <c r="E41">
         <v>0</v>
       </c>
+      <c r="F41" t="s">
+        <v>2531</v>
+      </c>
       <c r="G41" t="s">
         <v>1865</v>
       </c>
@@ -11142,6 +11268,9 @@
       <c r="E43">
         <v>0</v>
       </c>
+      <c r="F43" t="s">
+        <v>609</v>
+      </c>
       <c r="G43">
         <v>7</v>
       </c>
@@ -11195,6 +11324,9 @@
       <c r="E44">
         <v>0</v>
       </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
       <c r="G44">
         <v>9</v>
       </c>
@@ -11254,6 +11386,9 @@
       <c r="E45">
         <v>0</v>
       </c>
+      <c r="F45" t="s">
+        <v>2534</v>
+      </c>
       <c r="G45">
         <v>12</v>
       </c>
@@ -11307,6 +11442,9 @@
       <c r="E46">
         <v>0</v>
       </c>
+      <c r="F46" t="s">
+        <v>2535</v>
+      </c>
       <c r="G46" t="s">
         <v>1865</v>
       </c>
@@ -11384,6 +11522,9 @@
       <c r="E47">
         <v>0</v>
       </c>
+      <c r="F47" t="s">
+        <v>2534</v>
+      </c>
       <c r="G47">
         <v>7</v>
       </c>
@@ -11428,6 +11569,9 @@
       <c r="B48">
         <v>0</v>
       </c>
+      <c r="F48" t="s">
+        <v>2531</v>
+      </c>
       <c r="G48" t="s">
         <v>1865</v>
       </c>
@@ -11475,6 +11619,9 @@
       <c r="E49">
         <v>0</v>
       </c>
+      <c r="F49" t="s">
+        <v>2536</v>
+      </c>
       <c r="G49">
         <v>12</v>
       </c>
@@ -11528,6 +11675,9 @@
       <c r="E50">
         <v>0</v>
       </c>
+      <c r="F50" t="s">
+        <v>2535</v>
+      </c>
       <c r="G50" t="s">
         <v>1865</v>
       </c>
@@ -11581,6 +11731,9 @@
       <c r="E51">
         <v>0</v>
       </c>
+      <c r="F51" t="s">
+        <v>2535</v>
+      </c>
       <c r="G51" t="s">
         <v>1865</v>
       </c>
@@ -11682,6 +11835,9 @@
       <c r="E52">
         <v>0</v>
       </c>
+      <c r="F52" t="s">
+        <v>2535</v>
+      </c>
       <c r="M52">
         <v>11</v>
       </c>
@@ -11723,6 +11879,9 @@
       <c r="E53">
         <v>0</v>
       </c>
+      <c r="F53" t="s">
+        <v>2535</v>
+      </c>
       <c r="G53" t="s">
         <v>1865</v>
       </c>
@@ -11776,6 +11935,9 @@
       <c r="E54">
         <v>0</v>
       </c>
+      <c r="F54" t="s">
+        <v>2535</v>
+      </c>
       <c r="G54">
         <v>9</v>
       </c>
@@ -11829,6 +11991,9 @@
       <c r="E55">
         <v>0</v>
       </c>
+      <c r="F55" t="s">
+        <v>2536</v>
+      </c>
       <c r="G55" t="s">
         <v>1865</v>
       </c>
@@ -11894,6 +12059,9 @@
       <c r="E56">
         <v>0</v>
       </c>
+      <c r="F56" t="s">
+        <v>2535</v>
+      </c>
       <c r="G56" t="s">
         <v>1865</v>
       </c>
@@ -11947,6 +12115,9 @@
       <c r="E57">
         <v>0</v>
       </c>
+      <c r="F57" t="s">
+        <v>2534</v>
+      </c>
       <c r="G57">
         <v>1</v>
       </c>
@@ -12000,6 +12171,9 @@
       <c r="E58">
         <v>0</v>
       </c>
+      <c r="F58" t="s">
+        <v>2536</v>
+      </c>
       <c r="G58">
         <v>1</v>
       </c>
@@ -12059,6 +12233,9 @@
       <c r="E59">
         <v>0</v>
       </c>
+      <c r="F59" t="s">
+        <v>2536</v>
+      </c>
       <c r="G59">
         <v>1</v>
       </c>
@@ -12492,6 +12669,9 @@
       <c r="E70">
         <v>0</v>
       </c>
+      <c r="F70" t="s">
+        <v>3</v>
+      </c>
       <c r="G70">
         <v>11</v>
       </c>
@@ -12925,6 +13105,9 @@
       <c r="E81">
         <v>0</v>
       </c>
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
       <c r="G81">
         <v>11</v>
       </c>
@@ -12978,6 +13161,9 @@
       <c r="E82">
         <v>0</v>
       </c>
+      <c r="F82" t="s">
+        <v>609</v>
+      </c>
       <c r="G82" t="s">
         <v>1865</v>
       </c>
@@ -13037,6 +13223,9 @@
       <c r="E83">
         <v>0</v>
       </c>
+      <c r="F83" t="s">
+        <v>2535</v>
+      </c>
       <c r="G83" t="s">
         <v>1865</v>
       </c>
@@ -13097,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
       <c r="G84" t="s">
         <v>1865</v>
@@ -13164,6 +13353,9 @@
       <c r="E85">
         <v>0</v>
       </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
       <c r="G85">
         <v>11</v>
       </c>
@@ -13369,6 +13561,9 @@
       <c r="E90">
         <v>0</v>
       </c>
+      <c r="F90" t="s">
+        <v>368</v>
+      </c>
       <c r="G90" t="s">
         <v>1865</v>
       </c>
@@ -13504,6 +13699,9 @@
       <c r="E93">
         <v>0</v>
       </c>
+      <c r="F93" t="s">
+        <v>2530</v>
+      </c>
       <c r="G93">
         <v>2</v>
       </c>
@@ -13671,6 +13869,9 @@
       <c r="E97">
         <v>0</v>
       </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
       <c r="G97">
         <v>1</v>
       </c>
@@ -13780,6 +13981,9 @@
       <c r="E99">
         <v>0</v>
       </c>
+      <c r="F99" t="s">
+        <v>609</v>
+      </c>
       <c r="G99">
         <v>3</v>
       </c>
@@ -13833,6 +14037,9 @@
       <c r="E100">
         <v>0</v>
       </c>
+      <c r="F100" t="s">
+        <v>9</v>
+      </c>
       <c r="G100">
         <v>1</v>
       </c>
@@ -13886,6 +14093,9 @@
       <c r="E101">
         <v>0</v>
       </c>
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
       <c r="G101">
         <v>3</v>
       </c>
@@ -14129,6 +14339,9 @@
       <c r="E107">
         <v>0</v>
       </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
       <c r="G107" t="s">
         <v>1865</v>
       </c>
@@ -14232,6 +14445,9 @@
       <c r="E109">
         <v>0</v>
       </c>
+      <c r="F109" t="s">
+        <v>3</v>
+      </c>
       <c r="G109">
         <v>4</v>
       </c>
@@ -14323,6 +14539,9 @@
       <c r="E111">
         <v>0</v>
       </c>
+      <c r="F111" t="s">
+        <v>368</v>
+      </c>
       <c r="G111" t="s">
         <v>1865</v>
       </c>
@@ -14534,6 +14753,9 @@
       <c r="E116">
         <v>0</v>
       </c>
+      <c r="F116" t="s">
+        <v>2530</v>
+      </c>
       <c r="G116">
         <v>2</v>
       </c>
@@ -14625,6 +14847,9 @@
       <c r="E118">
         <v>0</v>
       </c>
+      <c r="F118" t="s">
+        <v>2530</v>
+      </c>
       <c r="G118">
         <v>3</v>
       </c>
@@ -14678,6 +14903,9 @@
       <c r="E119">
         <v>0</v>
       </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
       <c r="G119">
         <v>5</v>
       </c>
@@ -14731,6 +14959,9 @@
       <c r="E120">
         <v>0</v>
       </c>
+      <c r="F120" t="s">
+        <v>2531</v>
+      </c>
       <c r="G120">
         <v>5</v>
       </c>
@@ -14784,6 +15015,9 @@
       <c r="E121">
         <v>0</v>
       </c>
+      <c r="F121" t="s">
+        <v>3</v>
+      </c>
       <c r="G121">
         <v>5</v>
       </c>
@@ -14837,6 +15071,9 @@
       <c r="E122">
         <v>0</v>
       </c>
+      <c r="F122" t="s">
+        <v>2534</v>
+      </c>
       <c r="G122" t="s">
         <v>1865</v>
       </c>
@@ -14887,6 +15124,9 @@
       <c r="E123">
         <v>0</v>
       </c>
+      <c r="F123" t="s">
+        <v>2530</v>
+      </c>
       <c r="G123">
         <v>5</v>
       </c>
@@ -14940,6 +15180,9 @@
       <c r="E124">
         <v>0</v>
       </c>
+      <c r="F124" t="s">
+        <v>3</v>
+      </c>
       <c r="G124">
         <v>5</v>
       </c>
@@ -14993,6 +15236,9 @@
       <c r="E125">
         <v>0</v>
       </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
       <c r="G125">
         <v>5</v>
       </c>
@@ -15046,6 +15292,9 @@
       <c r="E126">
         <v>0</v>
       </c>
+      <c r="F126" t="s">
+        <v>2531</v>
+      </c>
       <c r="G126">
         <v>5</v>
       </c>
@@ -15175,6 +15424,9 @@
       <c r="E129">
         <v>0</v>
       </c>
+      <c r="F129" t="s">
+        <v>609</v>
+      </c>
       <c r="G129" t="s">
         <v>1865</v>
       </c>
@@ -15374,6 +15626,9 @@
       <c r="E134">
         <v>0</v>
       </c>
+      <c r="F134" t="s">
+        <v>133</v>
+      </c>
       <c r="G134">
         <v>4</v>
       </c>
@@ -15434,7 +15689,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
       <c r="G135" t="s">
         <v>1865</v>
@@ -15501,6 +15756,9 @@
       <c r="E136">
         <v>0</v>
       </c>
+      <c r="F136" t="s">
+        <v>2535</v>
+      </c>
       <c r="G136" t="s">
         <v>1865</v>
       </c>
@@ -15560,6 +15818,9 @@
       <c r="E137">
         <v>0</v>
       </c>
+      <c r="F137" t="s">
+        <v>3</v>
+      </c>
       <c r="G137">
         <v>6</v>
       </c>
@@ -15613,6 +15874,9 @@
       <c r="E138">
         <v>0</v>
       </c>
+      <c r="F138" t="s">
+        <v>2534</v>
+      </c>
       <c r="G138" t="s">
         <v>1865</v>
       </c>
@@ -15666,6 +15930,9 @@
       <c r="E139">
         <v>0</v>
       </c>
+      <c r="F139" t="s">
+        <v>2535</v>
+      </c>
       <c r="M139" t="s">
         <v>1865</v>
       </c>
@@ -15704,6 +15971,9 @@
       <c r="B140">
         <v>0</v>
       </c>
+      <c r="F140" t="s">
+        <v>2531</v>
+      </c>
       <c r="G140" t="s">
         <v>1865</v>
       </c>
@@ -15903,6 +16173,9 @@
       <c r="E145">
         <v>0</v>
       </c>
+      <c r="F145" t="s">
+        <v>2530</v>
+      </c>
       <c r="G145">
         <v>7</v>
       </c>
@@ -16018,6 +16291,9 @@
       <c r="E147">
         <v>0</v>
       </c>
+      <c r="F147" t="s">
+        <v>2530</v>
+      </c>
       <c r="G147">
         <v>7</v>
       </c>
@@ -16071,6 +16347,9 @@
       <c r="E148">
         <v>0</v>
       </c>
+      <c r="F148" t="s">
+        <v>3</v>
+      </c>
       <c r="G148">
         <v>7</v>
       </c>
@@ -16124,6 +16403,9 @@
       <c r="E149">
         <v>0</v>
       </c>
+      <c r="F149" t="s">
+        <v>3</v>
+      </c>
       <c r="G149" t="s">
         <v>1865</v>
       </c>
@@ -16225,6 +16507,9 @@
       <c r="E150">
         <v>0</v>
       </c>
+      <c r="F150" t="s">
+        <v>3</v>
+      </c>
       <c r="G150">
         <v>7</v>
       </c>
@@ -16278,6 +16563,9 @@
       <c r="E151">
         <v>0</v>
       </c>
+      <c r="F151" t="s">
+        <v>3</v>
+      </c>
       <c r="G151">
         <v>7</v>
       </c>
@@ -16331,6 +16619,9 @@
       <c r="E152">
         <v>0</v>
       </c>
+      <c r="F152" t="s">
+        <v>3</v>
+      </c>
       <c r="G152">
         <v>7</v>
       </c>
@@ -16384,6 +16675,9 @@
       <c r="E153">
         <v>0</v>
       </c>
+      <c r="F153" t="s">
+        <v>3</v>
+      </c>
       <c r="G153">
         <v>7</v>
       </c>
@@ -16437,6 +16731,9 @@
       <c r="E154">
         <v>0</v>
       </c>
+      <c r="F154" t="s">
+        <v>2534</v>
+      </c>
       <c r="G154">
         <v>7</v>
       </c>
@@ -16528,6 +16825,9 @@
       <c r="E156">
         <v>0</v>
       </c>
+      <c r="F156" t="s">
+        <v>3</v>
+      </c>
       <c r="G156">
         <v>5</v>
       </c>
@@ -16581,6 +16881,9 @@
       <c r="E157">
         <v>0</v>
       </c>
+      <c r="F157" t="s">
+        <v>2534</v>
+      </c>
       <c r="G157">
         <v>7</v>
       </c>
@@ -16634,6 +16937,9 @@
       <c r="E158">
         <v>0</v>
       </c>
+      <c r="F158" t="s">
+        <v>3</v>
+      </c>
       <c r="G158">
         <v>7</v>
       </c>
@@ -16687,6 +16993,9 @@
       <c r="E159">
         <v>0</v>
       </c>
+      <c r="F159" t="s">
+        <v>2535</v>
+      </c>
       <c r="G159">
         <v>7</v>
       </c>
@@ -16778,6 +17087,9 @@
       <c r="E161">
         <v>0</v>
       </c>
+      <c r="F161" t="s">
+        <v>2534</v>
+      </c>
       <c r="G161">
         <v>7</v>
       </c>
@@ -16869,6 +17181,9 @@
       <c r="E163">
         <v>0</v>
       </c>
+      <c r="F163" t="s">
+        <v>2535</v>
+      </c>
       <c r="M163">
         <v>11</v>
       </c>
@@ -16954,6 +17269,9 @@
       <c r="E165">
         <v>0</v>
       </c>
+      <c r="F165" t="s">
+        <v>2530</v>
+      </c>
       <c r="G165">
         <v>8</v>
       </c>
@@ -17045,6 +17363,9 @@
       <c r="E167">
         <v>0</v>
       </c>
+      <c r="F167" t="s">
+        <v>2530</v>
+      </c>
       <c r="G167">
         <v>8</v>
       </c>
@@ -17098,6 +17419,9 @@
       <c r="E168">
         <v>0</v>
       </c>
+      <c r="F168" t="s">
+        <v>2530</v>
+      </c>
       <c r="G168">
         <v>8</v>
       </c>
@@ -17151,6 +17475,9 @@
       <c r="E169">
         <v>0</v>
       </c>
+      <c r="F169" t="s">
+        <v>2535</v>
+      </c>
       <c r="G169">
         <v>1</v>
       </c>
@@ -17204,6 +17531,9 @@
       <c r="E170">
         <v>0</v>
       </c>
+      <c r="F170" t="s">
+        <v>3</v>
+      </c>
       <c r="G170">
         <v>5</v>
       </c>
@@ -17257,6 +17587,9 @@
       <c r="E171">
         <v>0</v>
       </c>
+      <c r="F171" t="s">
+        <v>2536</v>
+      </c>
       <c r="G171" t="s">
         <v>1865</v>
       </c>
@@ -17550,6 +17883,9 @@
       <c r="E178">
         <v>0</v>
       </c>
+      <c r="F178" t="s">
+        <v>2535</v>
+      </c>
       <c r="G178" t="s">
         <v>1865</v>
       </c>
@@ -17627,6 +17963,9 @@
       <c r="E179">
         <v>0</v>
       </c>
+      <c r="F179" t="s">
+        <v>2535</v>
+      </c>
       <c r="G179" t="s">
         <v>1865</v>
       </c>
@@ -17762,6 +18101,9 @@
       <c r="E182">
         <v>0</v>
       </c>
+      <c r="F182" t="s">
+        <v>2535</v>
+      </c>
       <c r="G182">
         <v>9</v>
       </c>
@@ -17929,6 +18271,9 @@
       <c r="E186">
         <v>0</v>
       </c>
+      <c r="F186" t="s">
+        <v>2534</v>
+      </c>
       <c r="G186">
         <v>7</v>
       </c>
@@ -17982,6 +18327,9 @@
       <c r="E187">
         <v>0</v>
       </c>
+      <c r="F187" t="s">
+        <v>2532</v>
+      </c>
       <c r="G187" t="s">
         <v>1865</v>
       </c>
@@ -18117,6 +18465,9 @@
       <c r="E190">
         <v>0</v>
       </c>
+      <c r="F190" t="s">
+        <v>2530</v>
+      </c>
       <c r="G190">
         <v>10</v>
       </c>
@@ -18170,6 +18521,9 @@
       <c r="E191">
         <v>0</v>
       </c>
+      <c r="F191" t="s">
+        <v>2530</v>
+      </c>
       <c r="G191">
         <v>10</v>
       </c>
@@ -18223,6 +18577,9 @@
       <c r="E192">
         <v>0</v>
       </c>
+      <c r="F192" t="s">
+        <v>9</v>
+      </c>
       <c r="G192">
         <v>3</v>
       </c>
@@ -18276,6 +18633,9 @@
       <c r="E193">
         <v>0</v>
       </c>
+      <c r="F193" t="s">
+        <v>6</v>
+      </c>
       <c r="G193">
         <v>10</v>
       </c>
@@ -18329,6 +18689,9 @@
       <c r="E194">
         <v>0</v>
       </c>
+      <c r="F194" t="s">
+        <v>9</v>
+      </c>
       <c r="G194">
         <v>10</v>
       </c>
@@ -18476,6 +18839,9 @@
       <c r="E197">
         <v>0</v>
       </c>
+      <c r="F197" t="s">
+        <v>2535</v>
+      </c>
       <c r="G197">
         <v>10</v>
       </c>
@@ -18833,6 +19199,9 @@
       <c r="E206">
         <v>0</v>
       </c>
+      <c r="F206" t="s">
+        <v>1711</v>
+      </c>
       <c r="G206">
         <v>11</v>
       </c>
@@ -18886,6 +19255,9 @@
       <c r="E207">
         <v>0</v>
       </c>
+      <c r="F207" t="s">
+        <v>3</v>
+      </c>
       <c r="G207">
         <v>11</v>
       </c>
@@ -18939,6 +19311,9 @@
       <c r="E208">
         <v>0</v>
       </c>
+      <c r="F208" t="s">
+        <v>1711</v>
+      </c>
       <c r="G208">
         <v>11</v>
       </c>
@@ -18992,6 +19367,9 @@
       <c r="E209">
         <v>0</v>
       </c>
+      <c r="F209" t="s">
+        <v>2530</v>
+      </c>
       <c r="G209">
         <v>10</v>
       </c>
@@ -19045,6 +19423,9 @@
       <c r="E210">
         <v>0</v>
       </c>
+      <c r="F210" t="s">
+        <v>1711</v>
+      </c>
       <c r="G210">
         <v>11</v>
       </c>
@@ -19098,6 +19479,9 @@
       <c r="E211">
         <v>0</v>
       </c>
+      <c r="F211" t="s">
+        <v>2531</v>
+      </c>
       <c r="G211">
         <v>11</v>
       </c>
@@ -19189,6 +19573,9 @@
       <c r="E213">
         <v>0</v>
       </c>
+      <c r="F213" t="s">
+        <v>9</v>
+      </c>
       <c r="G213">
         <v>11</v>
       </c>
@@ -19242,6 +19629,9 @@
       <c r="E214">
         <v>0</v>
       </c>
+      <c r="F214" t="s">
+        <v>2535</v>
+      </c>
       <c r="G214">
         <v>11</v>
       </c>
@@ -19295,6 +19685,9 @@
       <c r="E215">
         <v>0</v>
       </c>
+      <c r="F215" t="s">
+        <v>6</v>
+      </c>
       <c r="G215">
         <v>11</v>
       </c>
@@ -19480,6 +19873,9 @@
       <c r="E219">
         <v>0</v>
       </c>
+      <c r="F219" t="s">
+        <v>2531</v>
+      </c>
       <c r="G219">
         <v>9</v>
       </c>
@@ -19533,6 +19929,9 @@
       <c r="E220">
         <v>0</v>
       </c>
+      <c r="F220" t="s">
+        <v>2530</v>
+      </c>
       <c r="G220">
         <v>12</v>
       </c>
@@ -19587,7 +19986,7 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
       <c r="G221" t="s">
         <v>1865</v>
@@ -19654,6 +20053,9 @@
       <c r="E222">
         <v>0</v>
       </c>
+      <c r="F222" t="s">
+        <v>221</v>
+      </c>
       <c r="G222">
         <v>1</v>
       </c>
@@ -19707,6 +20109,9 @@
       <c r="E223">
         <v>0</v>
       </c>
+      <c r="F223" t="s">
+        <v>2535</v>
+      </c>
       <c r="G223" t="s">
         <v>1865</v>
       </c>
@@ -19766,6 +20171,9 @@
       <c r="E224">
         <v>0</v>
       </c>
+      <c r="F224" t="s">
+        <v>2535</v>
+      </c>
       <c r="G224">
         <v>11</v>
       </c>
@@ -19857,6 +20265,9 @@
       <c r="E226">
         <v>0</v>
       </c>
+      <c r="F226" t="s">
+        <v>2537</v>
+      </c>
       <c r="G226">
         <v>12</v>
       </c>
@@ -19948,6 +20359,9 @@
       <c r="E228">
         <v>0</v>
       </c>
+      <c r="F228" t="s">
+        <v>2532</v>
+      </c>
       <c r="G228">
         <v>1</v>
       </c>
@@ -20001,6 +20415,9 @@
       <c r="E229">
         <v>0</v>
       </c>
+      <c r="F229" t="s">
+        <v>2532</v>
+      </c>
       <c r="G229">
         <v>1</v>
       </c>
@@ -20054,6 +20471,9 @@
       <c r="E230">
         <v>0</v>
       </c>
+      <c r="F230" t="s">
+        <v>2532</v>
+      </c>
       <c r="G230">
         <v>1</v>
       </c>
@@ -20107,6 +20527,9 @@
       <c r="E231">
         <v>0</v>
       </c>
+      <c r="F231" t="s">
+        <v>2532</v>
+      </c>
       <c r="G231">
         <v>1</v>
       </c>
@@ -20160,6 +20583,9 @@
       <c r="E232">
         <v>0</v>
       </c>
+      <c r="F232" t="s">
+        <v>3</v>
+      </c>
       <c r="G232">
         <v>1</v>
       </c>
@@ -20213,6 +20639,9 @@
       <c r="E233">
         <v>0</v>
       </c>
+      <c r="F233" t="s">
+        <v>2535</v>
+      </c>
       <c r="G233">
         <v>1</v>
       </c>
@@ -20266,6 +20695,9 @@
       <c r="E234">
         <v>0</v>
       </c>
+      <c r="F234" t="s">
+        <v>2535</v>
+      </c>
       <c r="G234">
         <v>10</v>
       </c>
@@ -20310,6 +20742,9 @@
       <c r="B235">
         <v>0</v>
       </c>
+      <c r="F235" t="s">
+        <v>9</v>
+      </c>
       <c r="G235" t="s">
         <v>1865</v>
       </c>
@@ -20510,7 +20945,7 @@
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>241</v>
+        <v>3</v>
       </c>
       <c r="G240" t="s">
         <v>1865</v>
@@ -20565,6 +21000,9 @@
       <c r="E241">
         <v>0</v>
       </c>
+      <c r="F241" t="s">
+        <v>2531</v>
+      </c>
       <c r="G241">
         <v>7</v>
       </c>
@@ -20618,6 +21056,9 @@
       <c r="E242">
         <v>1</v>
       </c>
+      <c r="F242" t="s">
+        <v>3</v>
+      </c>
       <c r="G242" t="s">
         <v>1865</v>
       </c>
@@ -20683,6 +21124,9 @@
       <c r="E243">
         <v>0</v>
       </c>
+      <c r="F243" t="s">
+        <v>2535</v>
+      </c>
       <c r="G243" t="s">
         <v>1865</v>
       </c>
@@ -20774,6 +21218,9 @@
       <c r="E245">
         <v>0</v>
       </c>
+      <c r="F245" t="s">
+        <v>2535</v>
+      </c>
       <c r="G245">
         <v>11</v>
       </c>
@@ -20865,6 +21312,9 @@
       <c r="E247">
         <v>0</v>
       </c>
+      <c r="F247" t="s">
+        <v>3</v>
+      </c>
       <c r="G247">
         <v>1</v>
       </c>
@@ -20918,6 +21368,9 @@
       <c r="E248">
         <v>0</v>
       </c>
+      <c r="F248" t="s">
+        <v>9</v>
+      </c>
       <c r="G248">
         <v>8</v>
       </c>
@@ -20971,6 +21424,9 @@
       <c r="E249">
         <v>0</v>
       </c>
+      <c r="F249" t="s">
+        <v>3</v>
+      </c>
       <c r="G249">
         <v>3</v>
       </c>
@@ -21024,6 +21480,9 @@
       <c r="E250">
         <v>0</v>
       </c>
+      <c r="F250" t="s">
+        <v>3</v>
+      </c>
       <c r="G250">
         <v>3</v>
       </c>
@@ -21077,6 +21536,9 @@
       <c r="E251">
         <v>0</v>
       </c>
+      <c r="F251" t="s">
+        <v>3</v>
+      </c>
       <c r="G251">
         <v>3</v>
       </c>
@@ -21130,6 +21592,9 @@
       <c r="E252">
         <v>0</v>
       </c>
+      <c r="F252" t="s">
+        <v>3</v>
+      </c>
       <c r="G252">
         <v>3</v>
       </c>
@@ -21183,6 +21648,9 @@
       <c r="E253">
         <v>0</v>
       </c>
+      <c r="F253" t="s">
+        <v>2532</v>
+      </c>
       <c r="G253">
         <v>3</v>
       </c>
@@ -21236,6 +21704,9 @@
       <c r="E254">
         <v>0</v>
       </c>
+      <c r="F254" t="s">
+        <v>2535</v>
+      </c>
       <c r="M254" t="s">
         <v>1865</v>
       </c>
@@ -21511,6 +21982,9 @@
       <c r="E261">
         <v>0</v>
       </c>
+      <c r="F261" t="s">
+        <v>2530</v>
+      </c>
       <c r="G261">
         <v>10</v>
       </c>
@@ -21564,8 +22038,8 @@
       <c r="E262">
         <v>0</v>
       </c>
-      <c r="F262">
-        <v>4</v>
+      <c r="F262" t="s">
+        <v>13</v>
       </c>
       <c r="G262">
         <v>2009</v>
@@ -21626,6 +22100,9 @@
       <c r="E263">
         <v>0</v>
       </c>
+      <c r="F263" t="s">
+        <v>3</v>
+      </c>
       <c r="G263">
         <v>4</v>
       </c>
@@ -21679,6 +22156,9 @@
       <c r="E264">
         <v>0</v>
       </c>
+      <c r="F264" t="s">
+        <v>3</v>
+      </c>
       <c r="G264">
         <v>4</v>
       </c>
@@ -21732,6 +22212,9 @@
       <c r="E265">
         <v>0</v>
       </c>
+      <c r="F265" t="s">
+        <v>3</v>
+      </c>
       <c r="G265">
         <v>4</v>
       </c>
@@ -21885,6 +22368,9 @@
       <c r="E268">
         <v>0</v>
       </c>
+      <c r="F268" t="s">
+        <v>609</v>
+      </c>
       <c r="G268">
         <v>1</v>
       </c>
@@ -21976,6 +22462,9 @@
       <c r="E270">
         <v>0</v>
       </c>
+      <c r="F270" t="s">
+        <v>2531</v>
+      </c>
       <c r="G270" t="s">
         <v>1865</v>
       </c>
@@ -22079,6 +22568,9 @@
       <c r="E272">
         <v>0</v>
       </c>
+      <c r="F272" t="s">
+        <v>2531</v>
+      </c>
       <c r="G272">
         <v>4</v>
       </c>
@@ -22170,6 +22662,9 @@
       <c r="E274">
         <v>0</v>
       </c>
+      <c r="F274" t="s">
+        <v>9</v>
+      </c>
       <c r="G274" t="s">
         <v>1865</v>
       </c>
@@ -22223,6 +22718,9 @@
       <c r="E275">
         <v>0</v>
       </c>
+      <c r="F275" t="s">
+        <v>3</v>
+      </c>
       <c r="G275">
         <v>5</v>
       </c>
@@ -22276,6 +22774,9 @@
       <c r="E276">
         <v>0</v>
       </c>
+      <c r="F276" t="s">
+        <v>3</v>
+      </c>
       <c r="G276">
         <v>5</v>
       </c>
@@ -22329,6 +22830,9 @@
       <c r="E277">
         <v>0</v>
       </c>
+      <c r="F277" t="s">
+        <v>2530</v>
+      </c>
       <c r="G277">
         <v>5</v>
       </c>
@@ -22382,6 +22886,9 @@
       <c r="E278">
         <v>0</v>
       </c>
+      <c r="F278" t="s">
+        <v>2530</v>
+      </c>
       <c r="G278">
         <v>5</v>
       </c>
@@ -22435,6 +22942,9 @@
       <c r="E279">
         <v>0</v>
       </c>
+      <c r="F279" t="s">
+        <v>2530</v>
+      </c>
       <c r="G279">
         <v>5</v>
       </c>
@@ -22526,6 +23036,9 @@
       <c r="E281">
         <v>0</v>
       </c>
+      <c r="F281" t="s">
+        <v>2530</v>
+      </c>
       <c r="G281">
         <v>5</v>
       </c>
@@ -22576,6 +23089,9 @@
       <c r="D282" t="s">
         <v>1704</v>
       </c>
+      <c r="F282" t="s">
+        <v>3</v>
+      </c>
       <c r="G282" t="s">
         <v>1865</v>
       </c>
@@ -22623,6 +23139,9 @@
       <c r="E283">
         <v>0</v>
       </c>
+      <c r="F283" t="s">
+        <v>2533</v>
+      </c>
       <c r="G283">
         <v>5</v>
       </c>
@@ -22790,6 +23309,9 @@
       <c r="E287">
         <v>0</v>
       </c>
+      <c r="F287" t="s">
+        <v>3</v>
+      </c>
       <c r="G287">
         <v>4</v>
       </c>
@@ -22849,6 +23371,9 @@
       <c r="E288">
         <v>0</v>
       </c>
+      <c r="F288" t="s">
+        <v>3</v>
+      </c>
       <c r="G288">
         <v>6</v>
       </c>
@@ -22902,6 +23427,9 @@
       <c r="E289">
         <v>0</v>
       </c>
+      <c r="F289" t="s">
+        <v>3</v>
+      </c>
       <c r="G289">
         <v>6</v>
       </c>
@@ -22955,6 +23483,9 @@
       <c r="E290">
         <v>0</v>
       </c>
+      <c r="F290" t="s">
+        <v>3</v>
+      </c>
       <c r="G290">
         <v>6</v>
       </c>
@@ -23008,6 +23539,9 @@
       <c r="E291">
         <v>0</v>
       </c>
+      <c r="F291" t="s">
+        <v>1711</v>
+      </c>
       <c r="G291">
         <v>6</v>
       </c>
@@ -23099,6 +23633,9 @@
       <c r="E293">
         <v>0</v>
       </c>
+      <c r="F293" t="s">
+        <v>2535</v>
+      </c>
       <c r="G293" t="s">
         <v>1865</v>
       </c>
@@ -23196,6 +23733,9 @@
       <c r="E295">
         <v>0</v>
       </c>
+      <c r="F295" t="s">
+        <v>2535</v>
+      </c>
       <c r="G295">
         <v>11</v>
       </c>
@@ -23287,6 +23827,9 @@
       <c r="E297">
         <v>0</v>
       </c>
+      <c r="F297" t="s">
+        <v>2534</v>
+      </c>
       <c r="G297">
         <v>7</v>
       </c>
@@ -23340,6 +23883,9 @@
       <c r="E298">
         <v>0</v>
       </c>
+      <c r="F298" t="s">
+        <v>3</v>
+      </c>
       <c r="G298">
         <v>1</v>
       </c>
@@ -23507,6 +24053,9 @@
       <c r="E302">
         <v>0</v>
       </c>
+      <c r="F302" t="s">
+        <v>2530</v>
+      </c>
       <c r="G302">
         <v>5</v>
       </c>
@@ -23560,6 +24109,9 @@
       <c r="E303">
         <v>0</v>
       </c>
+      <c r="F303" t="s">
+        <v>2530</v>
+      </c>
       <c r="G303">
         <v>7</v>
       </c>
@@ -23613,6 +24165,9 @@
       <c r="E304">
         <v>0</v>
       </c>
+      <c r="F304" t="s">
+        <v>609</v>
+      </c>
       <c r="G304">
         <v>7</v>
       </c>
@@ -23780,6 +24335,9 @@
       <c r="E308">
         <v>0</v>
       </c>
+      <c r="F308" t="s">
+        <v>4</v>
+      </c>
       <c r="G308">
         <v>1</v>
       </c>
@@ -23947,6 +24505,9 @@
       <c r="E312">
         <v>0</v>
       </c>
+      <c r="F312" t="s">
+        <v>3</v>
+      </c>
       <c r="G312">
         <v>8</v>
       </c>
@@ -24000,6 +24561,9 @@
       <c r="E313">
         <v>0</v>
       </c>
+      <c r="F313" t="s">
+        <v>9</v>
+      </c>
       <c r="G313">
         <v>6</v>
       </c>
@@ -24053,6 +24617,9 @@
       <c r="E314">
         <v>0</v>
       </c>
+      <c r="F314" t="s">
+        <v>6</v>
+      </c>
       <c r="G314">
         <v>8</v>
       </c>
@@ -24106,6 +24673,9 @@
       <c r="E315">
         <v>0</v>
       </c>
+      <c r="F315" t="s">
+        <v>3</v>
+      </c>
       <c r="G315">
         <v>8</v>
       </c>
@@ -24159,6 +24729,9 @@
       <c r="E316">
         <v>0</v>
       </c>
+      <c r="F316" t="s">
+        <v>9</v>
+      </c>
       <c r="G316">
         <v>8</v>
       </c>
@@ -24242,6 +24815,9 @@
       <c r="E317">
         <v>0</v>
       </c>
+      <c r="F317" t="s">
+        <v>2535</v>
+      </c>
       <c r="G317" t="s">
         <v>1865</v>
       </c>
@@ -24325,6 +24901,9 @@
       <c r="E318">
         <v>0</v>
       </c>
+      <c r="F318" t="s">
+        <v>9</v>
+      </c>
       <c r="G318">
         <v>8</v>
       </c>
@@ -24378,6 +24957,9 @@
       <c r="E319">
         <v>0</v>
       </c>
+      <c r="F319" t="s">
+        <v>1711</v>
+      </c>
       <c r="G319">
         <v>6</v>
       </c>
@@ -24697,6 +25279,9 @@
       <c r="E327">
         <v>0</v>
       </c>
+      <c r="F327" t="s">
+        <v>9</v>
+      </c>
       <c r="G327">
         <v>9</v>
       </c>
@@ -24750,6 +25335,9 @@
       <c r="E328">
         <v>0</v>
       </c>
+      <c r="F328" t="s">
+        <v>609</v>
+      </c>
       <c r="G328">
         <v>9</v>
       </c>
@@ -24803,6 +25391,9 @@
       <c r="E329">
         <v>0</v>
       </c>
+      <c r="F329" t="s">
+        <v>9</v>
+      </c>
       <c r="G329" t="s">
         <v>1865</v>
       </c>
@@ -24886,6 +25477,9 @@
       <c r="E330">
         <v>0</v>
       </c>
+      <c r="F330" t="s">
+        <v>2535</v>
+      </c>
       <c r="G330">
         <v>9</v>
       </c>
@@ -25129,6 +25723,9 @@
       <c r="E336">
         <v>0</v>
       </c>
+      <c r="F336" t="s">
+        <v>3</v>
+      </c>
       <c r="G336">
         <v>10</v>
       </c>
@@ -25200,6 +25797,9 @@
       <c r="E337">
         <v>0</v>
       </c>
+      <c r="F337" t="s">
+        <v>3</v>
+      </c>
       <c r="G337">
         <v>10</v>
       </c>
@@ -25253,6 +25853,9 @@
       <c r="E338">
         <v>0</v>
       </c>
+      <c r="F338" t="s">
+        <v>1683</v>
+      </c>
       <c r="G338" t="s">
         <v>1865</v>
       </c>
@@ -25318,6 +25921,9 @@
       <c r="E339">
         <v>0</v>
       </c>
+      <c r="F339" t="s">
+        <v>3</v>
+      </c>
       <c r="G339" t="s">
         <v>1865</v>
       </c>
@@ -25371,6 +25977,9 @@
       <c r="E340">
         <v>0</v>
       </c>
+      <c r="F340" t="s">
+        <v>3</v>
+      </c>
       <c r="G340">
         <v>10</v>
       </c>
@@ -25424,6 +26033,9 @@
       <c r="E341">
         <v>0</v>
       </c>
+      <c r="F341" t="s">
+        <v>3</v>
+      </c>
       <c r="G341">
         <v>10</v>
       </c>
@@ -25477,6 +26089,9 @@
       <c r="E342">
         <v>0</v>
       </c>
+      <c r="F342" t="s">
+        <v>2537</v>
+      </c>
       <c r="G342">
         <v>10</v>
       </c>
@@ -25530,6 +26145,9 @@
       <c r="E343">
         <v>0</v>
       </c>
+      <c r="F343" t="s">
+        <v>2534</v>
+      </c>
       <c r="G343">
         <v>10</v>
       </c>
@@ -25583,6 +26201,9 @@
       <c r="E344">
         <v>0</v>
       </c>
+      <c r="F344" t="s">
+        <v>2535</v>
+      </c>
       <c r="G344" t="s">
         <v>1865</v>
       </c>
@@ -25633,6 +26254,9 @@
       <c r="D345" t="s">
         <v>1779</v>
       </c>
+      <c r="F345" t="s">
+        <v>3</v>
+      </c>
       <c r="G345" t="s">
         <v>1865</v>
       </c>
@@ -25680,6 +26304,9 @@
       <c r="E346">
         <v>0</v>
       </c>
+      <c r="F346" t="s">
+        <v>3</v>
+      </c>
       <c r="G346">
         <v>11</v>
       </c>
@@ -25733,6 +26360,9 @@
       <c r="E347">
         <v>0</v>
       </c>
+      <c r="F347" t="s">
+        <v>1711</v>
+      </c>
       <c r="G347">
         <v>11</v>
       </c>
@@ -25824,6 +26454,9 @@
       <c r="E349">
         <v>0</v>
       </c>
+      <c r="F349" t="s">
+        <v>2532</v>
+      </c>
       <c r="G349">
         <v>11</v>
       </c>
@@ -25877,6 +26510,9 @@
       <c r="E350">
         <v>0</v>
       </c>
+      <c r="F350" t="s">
+        <v>2535</v>
+      </c>
       <c r="G350">
         <v>11</v>
       </c>
@@ -26082,6 +26718,9 @@
       <c r="E355">
         <v>0</v>
       </c>
+      <c r="F355" t="s">
+        <v>13</v>
+      </c>
       <c r="G355">
         <v>12</v>
       </c>
@@ -26135,6 +26774,9 @@
       <c r="E356">
         <v>0</v>
       </c>
+      <c r="F356" t="s">
+        <v>12</v>
+      </c>
       <c r="G356">
         <v>12</v>
       </c>
@@ -26188,6 +26830,9 @@
       <c r="E357">
         <v>0</v>
       </c>
+      <c r="F357" t="s">
+        <v>1711</v>
+      </c>
       <c r="G357">
         <v>12</v>
       </c>
@@ -26241,6 +26886,9 @@
       <c r="E358">
         <v>0</v>
       </c>
+      <c r="F358" t="s">
+        <v>1711</v>
+      </c>
       <c r="G358">
         <v>12</v>
       </c>
@@ -26294,6 +26942,9 @@
       <c r="E359">
         <v>0</v>
       </c>
+      <c r="F359" t="s">
+        <v>3</v>
+      </c>
       <c r="G359">
         <v>12</v>
       </c>
@@ -26347,6 +26998,9 @@
       <c r="E360">
         <v>0</v>
       </c>
+      <c r="F360" t="s">
+        <v>2537</v>
+      </c>
       <c r="G360">
         <v>12</v>
       </c>
@@ -26476,6 +27130,9 @@
       <c r="E363">
         <v>0</v>
       </c>
+      <c r="F363" t="s">
+        <v>3</v>
+      </c>
       <c r="G363" t="s">
         <v>1865</v>
       </c>
@@ -26599,6 +27256,9 @@
       <c r="E366">
         <v>0</v>
       </c>
+      <c r="F366" t="s">
+        <v>609</v>
+      </c>
       <c r="G366">
         <v>7</v>
       </c>
@@ -26652,6 +27312,9 @@
       <c r="E367">
         <v>0</v>
       </c>
+      <c r="F367" t="s">
+        <v>2535</v>
+      </c>
       <c r="M367">
         <v>1</v>
       </c>
@@ -26693,6 +27356,9 @@
       <c r="E368">
         <v>0</v>
       </c>
+      <c r="F368" t="s">
+        <v>2535</v>
+      </c>
       <c r="G368">
         <v>1</v>
       </c>
@@ -26746,6 +27412,9 @@
       <c r="E369">
         <v>0</v>
       </c>
+      <c r="F369" t="s">
+        <v>368</v>
+      </c>
       <c r="G369">
         <v>1</v>
       </c>
@@ -26865,6 +27534,9 @@
       <c r="E370">
         <v>0</v>
       </c>
+      <c r="F370" t="s">
+        <v>2534</v>
+      </c>
       <c r="G370">
         <v>3</v>
       </c>
@@ -26918,6 +27590,9 @@
       <c r="E371">
         <v>0</v>
       </c>
+      <c r="F371" t="s">
+        <v>2534</v>
+      </c>
       <c r="G371" t="s">
         <v>1865</v>
       </c>
@@ -26983,6 +27658,9 @@
       <c r="E372">
         <v>0</v>
       </c>
+      <c r="F372" t="s">
+        <v>2531</v>
+      </c>
       <c r="G372">
         <v>1</v>
       </c>
@@ -27150,6 +27828,9 @@
       <c r="E376">
         <v>0</v>
       </c>
+      <c r="F376" t="s">
+        <v>3</v>
+      </c>
       <c r="G376">
         <v>4</v>
       </c>
@@ -27209,6 +27890,9 @@
       <c r="E377">
         <v>0</v>
       </c>
+      <c r="F377" t="s">
+        <v>13</v>
+      </c>
       <c r="G377">
         <v>12</v>
       </c>
@@ -27262,6 +27946,9 @@
       <c r="E378">
         <v>0</v>
       </c>
+      <c r="F378" t="s">
+        <v>2531</v>
+      </c>
       <c r="G378" t="s">
         <v>1865</v>
       </c>
@@ -27315,6 +28002,9 @@
       <c r="E379">
         <v>0</v>
       </c>
+      <c r="F379" t="s">
+        <v>399</v>
+      </c>
       <c r="G379">
         <v>12</v>
       </c>
@@ -27368,6 +28058,9 @@
       <c r="E380">
         <v>0</v>
       </c>
+      <c r="F380" t="s">
+        <v>2535</v>
+      </c>
       <c r="G380">
         <v>1</v>
       </c>
@@ -27497,6 +28190,9 @@
       <c r="E383">
         <v>0</v>
       </c>
+      <c r="F383" t="s">
+        <v>2533</v>
+      </c>
       <c r="G383" t="s">
         <v>1865</v>
       </c>
@@ -27711,6 +28407,9 @@
       <c r="E388">
         <v>0</v>
       </c>
+      <c r="F388" t="s">
+        <v>3</v>
+      </c>
       <c r="G388">
         <v>1</v>
       </c>
@@ -27764,6 +28463,9 @@
       <c r="E389">
         <v>0</v>
       </c>
+      <c r="F389" t="s">
+        <v>2534</v>
+      </c>
       <c r="G389">
         <v>7</v>
       </c>
@@ -27817,6 +28519,9 @@
       <c r="E390">
         <v>0</v>
       </c>
+      <c r="F390" t="s">
+        <v>2535</v>
+      </c>
       <c r="G390">
         <v>1</v>
       </c>
@@ -27870,6 +28575,9 @@
       <c r="E391">
         <v>0</v>
       </c>
+      <c r="F391" t="s">
+        <v>609</v>
+      </c>
       <c r="G391">
         <v>3</v>
       </c>
@@ -27923,6 +28631,9 @@
       <c r="E392">
         <v>0</v>
       </c>
+      <c r="F392" t="s">
+        <v>3</v>
+      </c>
       <c r="G392">
         <v>1</v>
       </c>
@@ -27981,6 +28692,9 @@
       </c>
       <c r="E393">
         <v>0</v>
+      </c>
+      <c r="F393" t="s">
+        <v>2535</v>
       </c>
       <c r="G393">
         <v>7</v>
